--- a/examples/1_1-Metabolomics_Draft/MTBLS263.xlsx
+++ b/examples/1_1-Metabolomics_Draft/MTBLS263.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="172" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="146" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -674,13 +674,13 @@
     <t>ms_run[1]:index=274 | ms_run[1]:index=290 | ms_run[2]:index=274 | ms_run[2]:index=290 | ms_run[3]:index=270 | ms_run[3]:index=288 | ms_run[4]:index=268 | ms_run[4]:index=284 | ms_run[5]:index=266 | ms_run[5]:index=282 | ms_run[6]:index=266 | ms_run[6]:index=282</t>
   </si>
   <si>
-    <t>[MS,MS,ms level,2]</t>
+    <t>[MS,MS:100511,ms level,2]</t>
   </si>
   <si>
     <t>ms_run[1]:index=281 | ms_run[2]:index=277 | ms_run[3]:index=279 | ms_run[4]:index=273 | ms_run[5]:index=271 | ms_run[6]:index=271</t>
   </si>
   <si>
-    <t>[MS,MS,ms level,1]</t>
+    <t>[MS,MS:100511,ms level,1]</t>
   </si>
   <si>
     <t>ms_run[1]:index=301 | ms_run[2]:index=297 | ms_run[3]:index=299 | ms_run[4]:index=291 | ms_run[5]:index=289 | ms_run[6]:index=289</t>
@@ -829,16 +829,15 @@
   </sheetPr>
   <dimension ref="A1:AA113"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B75" activeCellId="0" sqref="B75"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P73" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D58" activeCellId="0" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.46428571428571"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.7448979591837"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="62.7091836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.1326530612245"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="26.8112244897959"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.7397959183673"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.4591836734694"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.8010204081633"/>
@@ -850,7 +849,7 @@
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="24.219387755102"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="332.683673469388"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="23.1020408163265"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.2397959183673"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="24.0714285714286"/>
     <col collapsed="false" hidden="false" max="20" min="18" style="0" width="22.6887755102041"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="18.2397959183673"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="0" width="22.1275510204082"/>

--- a/examples/1_1-Metabolomics_Draft/MTBLS263.xlsx
+++ b/examples/1_1-Metabolomics_Draft/MTBLS263.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="146" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="172" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="245">
   <si>
     <t>MTD</t>
   </si>
@@ -23,7 +23,7 @@
     <t>mzTab-version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.0-M</t>
   </si>
   <si>
     <t>mzTab-ID</t>
@@ -149,36 +149,57 @@
     <t>D:\Data Sets\Metabolomics\MTBLS263\3injections_inj1_POS.mzML</t>
   </si>
   <si>
+    <t>ms_run[1]-scan_polarity[1]</t>
+  </si>
+  <si>
+    <t>[MS,MS:1000130,positive scan,]</t>
+  </si>
+  <si>
     <t>ms_run[2]-location</t>
   </si>
   <si>
     <t>D:\Data Sets\Metabolomics\MTBLS263\3injections_inj2_POS.mzML</t>
   </si>
   <si>
+    <t>ms_run[2]-scan_polarity[1]</t>
+  </si>
+  <si>
     <t>ms_run[3]-location</t>
   </si>
   <si>
     <t>D:\Data Sets\Metabolomics\MTBLS263\3injections_inj3_POS.mzML</t>
   </si>
   <si>
+    <t>ms_run[3]-scan_polarity[1]</t>
+  </si>
+  <si>
     <t>ms_run[4]-location</t>
   </si>
   <si>
     <t>D:\Data Sets\Metabolomics\MTBLS263\3samples_sampl1_POS.mzML</t>
   </si>
   <si>
+    <t>ms_run[4]-scan_polarity[1]</t>
+  </si>
+  <si>
     <t>ms_run[5]-location</t>
   </si>
   <si>
     <t>D:\Data Sets\Metabolomics\MTBLS263\3samples_sampl2_POS.mzML</t>
   </si>
   <si>
+    <t>ms_run[5]-scan_polarity[1]</t>
+  </si>
+  <si>
     <t>ms_run[6]-location</t>
   </si>
   <si>
     <t>D:\Data Sets\Metabolomics\MTBLS263\3samples_sampl3_POS.mzML</t>
   </si>
   <si>
+    <t>ms_run[6]-scan_polarity[1]</t>
+  </si>
+  <si>
     <t>study_variable[1]</t>
   </si>
   <si>
@@ -323,325 +344,322 @@
     <t>theoretical_neutral_mass</t>
   </si>
   <si>
+    <t>adduct_ions</t>
+  </si>
+  <si>
+    <t>reliability</t>
+  </si>
+  <si>
+    <t>best_id_confidence_measure</t>
+  </si>
+  <si>
+    <t>best_id_confidence_value</t>
+  </si>
+  <si>
+    <t>abundance_assay[1]</t>
+  </si>
+  <si>
+    <t>abundance_assay[2]</t>
+  </si>
+  <si>
+    <t>abundance_assay[3]</t>
+  </si>
+  <si>
+    <t>abundance_assay[4]</t>
+  </si>
+  <si>
+    <t>abundance_assay[5]</t>
+  </si>
+  <si>
+    <t>abundance_assay[6]</t>
+  </si>
+  <si>
+    <t>abundance_study_variable[1]</t>
+  </si>
+  <si>
+    <t>coeffvar_study_variable[1]</t>
+  </si>
+  <si>
+    <t>abundance_study_variable[2]</t>
+  </si>
+  <si>
+    <t>coeffvar_study_variable[2]</t>
+  </si>
+  <si>
+    <t>opt_global_Progenesis_identifier</t>
+  </si>
+  <si>
+    <t>SML</t>
+  </si>
+  <si>
+    <t>6 | 937</t>
+  </si>
+  <si>
+    <t>CHEBI:16737</t>
+  </si>
+  <si>
+    <t>C4H7N3O</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>Creatinine</t>
+  </si>
+  <si>
+    <t>[,,Progenesis MetaScope,]</t>
+  </si>
+  <si>
+    <t>6.90_113.0582n</t>
+  </si>
+  <si>
+    <t>CHEBI:17368</t>
+  </si>
+  <si>
+    <t>C5H4N4O</t>
+  </si>
+  <si>
+    <t>Hypoxanthine</t>
+  </si>
+  <si>
+    <t>7.34_137.0452m/z</t>
+  </si>
+  <si>
+    <t>CHEBI:25017</t>
+  </si>
+  <si>
+    <t>C6H13NO2</t>
+  </si>
+  <si>
+    <t>Leucine</t>
+  </si>
+  <si>
+    <t>8.06_132.1014m/z</t>
+  </si>
+  <si>
+    <t>CHEBI:16811</t>
+  </si>
+  <si>
+    <t>C5H11NO2S</t>
+  </si>
+  <si>
+    <t>Methionine</t>
+  </si>
+  <si>
+    <t>8.56_150.0578m/z</t>
+  </si>
+  <si>
+    <t>CHEBI:27266</t>
+  </si>
+  <si>
+    <t>C5H11NO2</t>
+  </si>
+  <si>
+    <t>Valine</t>
+  </si>
+  <si>
+    <t>9.74_118.0857m/z</t>
+  </si>
+  <si>
+    <t>CHEBI:26271</t>
+  </si>
+  <si>
+    <t>C5H9NO2</t>
+  </si>
+  <si>
+    <t>Proline</t>
+  </si>
+  <si>
+    <t>10.13_116.0699m/z</t>
+  </si>
+  <si>
+    <t>CHEBI:17775</t>
+  </si>
+  <si>
+    <t>C5H4N4O3</t>
+  </si>
+  <si>
+    <t>Urate</t>
+  </si>
+  <si>
+    <t>10.90_169.0349m/z</t>
+  </si>
+  <si>
+    <t>CHEBI:26986</t>
+  </si>
+  <si>
+    <t>C4H9NO3</t>
+  </si>
+  <si>
+    <t>Threonine</t>
+  </si>
+  <si>
+    <t>11.74_120.0649m/z</t>
+  </si>
+  <si>
+    <t>CHEBI:15891</t>
+  </si>
+  <si>
+    <t>C2H7NO3S</t>
+  </si>
+  <si>
+    <t>Taurine</t>
+  </si>
+  <si>
+    <t>11.92_126.0217m/z</t>
+  </si>
+  <si>
+    <t>CHEBI:39033</t>
+  </si>
+  <si>
+    <t>C8H18N2O6S2</t>
+  </si>
+  <si>
+    <t>PIPES [M-H]-</t>
+  </si>
+  <si>
+    <t>11.95_303.0674m/z</t>
+  </si>
+  <si>
+    <t>CHEBI:22653</t>
+  </si>
+  <si>
+    <t>C4H8N2O3</t>
+  </si>
+  <si>
+    <t>Asparagine</t>
+  </si>
+  <si>
+    <t>12.23_133.0602m/z</t>
+  </si>
+  <si>
+    <t>CHEBI:28300</t>
+  </si>
+  <si>
+    <t>C5H10N2O3</t>
+  </si>
+  <si>
+    <t>Glutamine</t>
+  </si>
+  <si>
+    <t>12.26_147.0758m/z</t>
+  </si>
+  <si>
+    <t>CHEBI:17270</t>
+  </si>
+  <si>
+    <t>C3H9O6P</t>
+  </si>
+  <si>
+    <t>Glycerol-2-phosphate</t>
+  </si>
+  <si>
+    <t>12.57_173.0206m/z</t>
+  </si>
+  <si>
+    <t>CHEBI:16695</t>
+  </si>
+  <si>
+    <t>C9H13N2O9P</t>
+  </si>
+  <si>
+    <t>UMP</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>12.82_325.0424m/z</t>
+  </si>
+  <si>
+    <t>CHEBI:17268</t>
+  </si>
+  <si>
+    <t>C6H12O6</t>
+  </si>
+  <si>
+    <t>myo-Inositol</t>
+  </si>
+  <si>
+    <t>14.42_203.0520m/z</t>
+  </si>
+  <si>
+    <t>CHEBI:17552</t>
+  </si>
+  <si>
+    <t>C10H15N5O11P2</t>
+  </si>
+  <si>
+    <t>GDP</t>
+  </si>
+  <si>
+    <t>15.32_444.0304m/z</t>
+  </si>
+  <si>
+    <t>79 | 523</t>
+  </si>
+  <si>
+    <t>CHEBI:25094</t>
+  </si>
+  <si>
+    <t>C6H14N2O2</t>
+  </si>
+  <si>
+    <t>Lysine</t>
+  </si>
+  <si>
+    <t>21.37_146.1049n</t>
+  </si>
+  <si>
+    <t>SFH</t>
+  </si>
+  <si>
+    <t>SMF_ID</t>
+  </si>
+  <si>
+    <t>SME_ID_REFS</t>
+  </si>
+  <si>
+    <t>SME_ID_REF_Ambiguity_Code</t>
+  </si>
+  <si>
+    <t>adduct_ion</t>
+  </si>
+  <si>
+    <t>isotopomer</t>
+  </si>
+  <si>
     <t>exp_mass_to_charge</t>
   </si>
   <si>
-    <t>retention_time</t>
-  </si>
-  <si>
-    <t>adduct_ions</t>
-  </si>
-  <si>
-    <t>reliability</t>
-  </si>
-  <si>
-    <t>best_id_confidence_measure</t>
-  </si>
-  <si>
-    <t>best_id_confidence_value</t>
-  </si>
-  <si>
-    <t>abundance_assay[1]</t>
-  </si>
-  <si>
-    <t>abundance_assay[2]</t>
-  </si>
-  <si>
-    <t>abundance_assay[3]</t>
-  </si>
-  <si>
-    <t>abundance_assay[4]</t>
-  </si>
-  <si>
-    <t>abundance_assay[5]</t>
-  </si>
-  <si>
-    <t>abundance_assay[6]</t>
-  </si>
-  <si>
-    <t>abundance_study_variable[1]</t>
-  </si>
-  <si>
-    <t>coeffvar_study_variable[1]</t>
-  </si>
-  <si>
-    <t>abundance_study_variable[2]</t>
-  </si>
-  <si>
-    <t>coeffvar_study_variable[2]</t>
-  </si>
-  <si>
-    <t>opt_global_Progenesis_identifier</t>
-  </si>
-  <si>
-    <t>SML</t>
-  </si>
-  <si>
-    <t>6 | 937</t>
-  </si>
-  <si>
-    <t>CHEBI:16737</t>
-  </si>
-  <si>
-    <t>C4H7N3O</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>Creatinine</t>
-  </si>
-  <si>
-    <t>[M+H]+ | [M+Na]+</t>
-  </si>
-  <si>
-    <t>[,,Progenesis MetaScope,]</t>
-  </si>
-  <si>
-    <t>6.90_113.0582n</t>
-  </si>
-  <si>
-    <t>CHEBI:17368</t>
-  </si>
-  <si>
-    <t>C5H4N4O</t>
-  </si>
-  <si>
-    <t>Hypoxanthine</t>
+    <t>charge</t>
+  </si>
+  <si>
+    <t>retention_time_in_seconds</t>
+  </si>
+  <si>
+    <t>retention_time_in_seconds_start</t>
+  </si>
+  <si>
+    <t>retention_time_in_seconds_end</t>
+  </si>
+  <si>
+    <t>SMF</t>
   </si>
   <si>
     <t>[M+H]+</t>
   </si>
   <si>
-    <t>7.34_137.0452m/z</t>
-  </si>
-  <si>
-    <t>CHEBI:25017</t>
-  </si>
-  <si>
-    <t>C6H13NO2</t>
-  </si>
-  <si>
-    <t>Leucine</t>
-  </si>
-  <si>
-    <t>8.06_132.1014m/z</t>
-  </si>
-  <si>
-    <t>CHEBI:16811</t>
-  </si>
-  <si>
-    <t>C5H11NO2S</t>
-  </si>
-  <si>
-    <t>Methionine</t>
-  </si>
-  <si>
-    <t>8.56_150.0578m/z</t>
-  </si>
-  <si>
-    <t>CHEBI:27266</t>
-  </si>
-  <si>
-    <t>C5H11NO2</t>
-  </si>
-  <si>
-    <t>Valine</t>
-  </si>
-  <si>
-    <t>9.74_118.0857m/z</t>
-  </si>
-  <si>
-    <t>CHEBI:26271</t>
-  </si>
-  <si>
-    <t>C5H9NO2</t>
-  </si>
-  <si>
-    <t>Proline</t>
-  </si>
-  <si>
-    <t>10.13_116.0699m/z</t>
-  </si>
-  <si>
-    <t>CHEBI:17775</t>
-  </si>
-  <si>
-    <t>C5H4N4O3</t>
-  </si>
-  <si>
-    <t>Urate</t>
-  </si>
-  <si>
-    <t>10.90_169.0349m/z</t>
-  </si>
-  <si>
-    <t>CHEBI:26986</t>
-  </si>
-  <si>
-    <t>C4H9NO3</t>
-  </si>
-  <si>
-    <t>Threonine</t>
-  </si>
-  <si>
-    <t>11.74_120.0649m/z</t>
-  </si>
-  <si>
-    <t>CHEBI:15891</t>
-  </si>
-  <si>
-    <t>C2H7NO3S</t>
-  </si>
-  <si>
-    <t>Taurine</t>
-  </si>
-  <si>
-    <t>11.92_126.0217m/z</t>
-  </si>
-  <si>
-    <t>CHEBI:39033</t>
-  </si>
-  <si>
-    <t>C8H18N2O6S2</t>
-  </si>
-  <si>
-    <t>PIPES [M-H]-</t>
-  </si>
-  <si>
-    <t>11.95_303.0674m/z</t>
-  </si>
-  <si>
-    <t>CHEBI:22653</t>
-  </si>
-  <si>
-    <t>C4H8N2O3</t>
-  </si>
-  <si>
-    <t>Asparagine</t>
-  </si>
-  <si>
-    <t>12.23_133.0602m/z</t>
-  </si>
-  <si>
-    <t>CHEBI:28300</t>
-  </si>
-  <si>
-    <t>C5H10N2O3</t>
-  </si>
-  <si>
-    <t>Glutamine</t>
-  </si>
-  <si>
-    <t>12.26_147.0758m/z</t>
-  </si>
-  <si>
-    <t>CHEBI:17270</t>
-  </si>
-  <si>
-    <t>C3H9O6P</t>
-  </si>
-  <si>
-    <t>Glycerol-2-phosphate</t>
-  </si>
-  <si>
-    <t>12.57_173.0206m/z</t>
-  </si>
-  <si>
-    <t>CHEBI:16695</t>
-  </si>
-  <si>
-    <t>C9H13N2O9P</t>
-  </si>
-  <si>
-    <t>UMP</t>
-  </si>
-  <si>
-    <t>NaN</t>
-  </si>
-  <si>
-    <t>12.82_325.0424m/z</t>
-  </si>
-  <si>
-    <t>CHEBI:17268</t>
-  </si>
-  <si>
-    <t>C6H12O6</t>
-  </si>
-  <si>
-    <t>myo-Inositol</t>
-  </si>
-  <si>
     <t>[M+Na]+</t>
   </si>
   <si>
-    <t>14.42_203.0520m/z</t>
-  </si>
-  <si>
-    <t>CHEBI:17552</t>
-  </si>
-  <si>
-    <t>C10H15N5O11P2</t>
-  </si>
-  <si>
-    <t>GDP</t>
-  </si>
-  <si>
-    <t>15.32_444.0304m/z</t>
-  </si>
-  <si>
-    <t>79 | 523</t>
-  </si>
-  <si>
-    <t>CHEBI:25094</t>
-  </si>
-  <si>
-    <t>C6H14N2O2</t>
-  </si>
-  <si>
-    <t>Lysine</t>
-  </si>
-  <si>
-    <t>21.37_146.1049n</t>
-  </si>
-  <si>
-    <t>SFH</t>
-  </si>
-  <si>
-    <t>SMF_ID</t>
-  </si>
-  <si>
-    <t>SME_ID_REFS</t>
-  </si>
-  <si>
-    <t>SME_ID_REF_Ambiguity_Code</t>
-  </si>
-  <si>
-    <t>adduct_ion</t>
-  </si>
-  <si>
-    <t>isotopomer</t>
-  </si>
-  <si>
-    <t>charge</t>
-  </si>
-  <si>
-    <t>retention_time_start</t>
-  </si>
-  <si>
-    <t>retention_time_end</t>
-  </si>
-  <si>
-    <t>SMF</t>
-  </si>
-  <si>
     <t>SEH</t>
   </si>
   <si>
     <t>SME_ID</t>
   </si>
   <si>
-    <t>evidence_unique_ID</t>
+    <t>evidence_input_id</t>
   </si>
   <si>
     <t>derivatized_form</t>
@@ -662,10 +680,10 @@
     <t>rank</t>
   </si>
   <si>
-    <t>opt_global_retention_time</t>
-  </si>
-  <si>
-    <t>opt_global_retention_time_database</t>
+    <t>opt_global_retention_time_in_seconds</t>
+  </si>
+  <si>
+    <t>opt_global_retention_time_in_seconds_database</t>
   </si>
   <si>
     <t>SME</t>
@@ -827,38 +845,38 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA113"/>
+  <dimension ref="A1:Y119"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P73" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D58" activeCellId="0" sqref="D58"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.46428571428571"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.7448979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="26.8112244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.1326530612245"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.7397959183673"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.4591836734694"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.8010204081633"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.6581632653061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.7142857142857"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.8010204081633"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="18.2397959183673"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.1020408163265"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.6887755102041"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="27"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.2397959183673"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="25.0561224489796"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="24.219387755102"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="332.683673469388"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="23.1020408163265"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="24.0714285714286"/>
     <col collapsed="false" hidden="false" max="20" min="18" style="0" width="22.6887755102041"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="18.2397959183673"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="22.1275510204082"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="30.4744897959184"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="25.0561224489796"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="32.2704081632653"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="40.6122448979592"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="0" width="22.6887755102041"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="25.0561224489796"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="22.6887755102041"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="27.5459183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="27.5459183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1177,7 +1195,7 @@
         <v>48</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1185,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="B30" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1196,10 +1214,10 @@
         <v>0</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1207,10 +1225,10 @@
         <v>0</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1218,10 +1236,10 @@
         <v>0</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1229,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1240,10 +1258,10 @@
         <v>0</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1251,10 +1269,10 @@
         <v>0</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1262,10 +1280,10 @@
         <v>0</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1273,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1284,10 +1302,10 @@
         <v>0</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1295,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1306,10 +1324,10 @@
         <v>0</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1317,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1328,10 +1346,10 @@
         <v>0</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1339,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1350,10 +1368,10 @@
         <v>0</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1361,10 +1379,10 @@
         <v>0</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1372,10 +1390,10 @@
         <v>0</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1383,10 +1401,10 @@
         <v>0</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1394,10 +1412,10 @@
         <v>0</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1405,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1416,10 +1434,10 @@
         <v>0</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1427,3983 +1445,3941 @@
         <v>0</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>91</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="E54" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F54" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="G54" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="H54" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="I54" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="J54" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="K54" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="L54" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="M54" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="N54" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="O54" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="P54" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q54" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="R54" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="S54" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="T54" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="U54" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="V54" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="W54" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="X54" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y54" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z54" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA54" s="0" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="B55" s="0" t="n">
-        <v>469</v>
+        <v>0</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>92</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="E55" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="F55" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="G55" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="H55" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="I55" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="J55" s="0" t="n">
-        <v>113.0589</v>
-      </c>
-      <c r="K55" s="0" t="n">
-        <v>114.0654</v>
-      </c>
-      <c r="L55" s="0" t="n">
-        <v>413.81</v>
-      </c>
-      <c r="M55" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="N55" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O55" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="P55" s="0" t="n">
-        <v>56.4424</v>
-      </c>
-      <c r="Q55" s="0" t="n">
-        <v>59809754.62</v>
-      </c>
-      <c r="R55" s="0" t="n">
-        <v>63773291.22</v>
-      </c>
-      <c r="S55" s="0" t="n">
-        <v>61630638.37</v>
-      </c>
-      <c r="T55" s="0" t="n">
-        <v>59131129.43</v>
-      </c>
-      <c r="U55" s="0" t="n">
-        <v>63874747.95</v>
-      </c>
-      <c r="V55" s="0" t="n">
-        <v>66320708.84</v>
-      </c>
-      <c r="W55" s="0" t="n">
-        <v>185213684.2</v>
-      </c>
-      <c r="X55" s="0" t="n">
-        <v>3.2135</v>
-      </c>
-      <c r="Y55" s="0" t="n">
-        <v>189326586.2</v>
-      </c>
-      <c r="Z55" s="0" t="n">
-        <v>5.7923</v>
-      </c>
-      <c r="AA55" s="0" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="B56" s="0" t="n">
-        <v>495</v>
-      </c>
-      <c r="C56" s="0" t="n">
-        <v>782</v>
-      </c>
-      <c r="D56" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="E56" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="F56" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="G56" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="H56" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="I56" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="J56" s="0" t="n">
-        <v>136.0385</v>
-      </c>
-      <c r="K56" s="0" t="n">
-        <v>137.0452</v>
-      </c>
-      <c r="L56" s="0" t="n">
-        <v>440.1</v>
-      </c>
-      <c r="M56" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="N56" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O56" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="P56" s="0" t="n">
-        <v>44.0249</v>
-      </c>
-      <c r="Q56" s="0" t="n">
-        <v>1164487.316</v>
-      </c>
-      <c r="R56" s="0" t="n">
-        <v>1376477.974</v>
-      </c>
-      <c r="S56" s="0" t="n">
-        <v>1531498.698</v>
-      </c>
-      <c r="T56" s="0" t="n">
-        <v>1398304.361</v>
-      </c>
-      <c r="U56" s="0" t="n">
-        <v>1633581.631</v>
-      </c>
-      <c r="V56" s="0" t="n">
-        <v>2129396.512</v>
-      </c>
-      <c r="W56" s="0" t="n">
-        <v>4072463.988</v>
-      </c>
-      <c r="X56" s="0" t="n">
-        <v>13.5722</v>
-      </c>
-      <c r="Y56" s="0" t="n">
-        <v>5161282.504</v>
-      </c>
-      <c r="Z56" s="0" t="n">
-        <v>21.6925</v>
-      </c>
-      <c r="AA56" s="0" t="s">
-        <v>132</v>
+        <v>0</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="B57" s="0" t="n">
-        <v>528</v>
-      </c>
-      <c r="C57" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="D57" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="E57" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="F57" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="G57" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="H57" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I57" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="J57" s="0" t="n">
-        <v>131.0946</v>
-      </c>
-      <c r="K57" s="0" t="n">
-        <v>132.1014</v>
-      </c>
-      <c r="L57" s="0" t="n">
-        <v>483.77</v>
-      </c>
-      <c r="M57" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="N57" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O57" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="P57" s="0" t="n">
-        <v>48.2759</v>
-      </c>
-      <c r="Q57" s="0" t="n">
-        <v>65543883.46</v>
-      </c>
-      <c r="R57" s="0" t="n">
-        <v>65475290.35</v>
-      </c>
-      <c r="S57" s="0" t="n">
-        <v>67694647.59</v>
-      </c>
-      <c r="T57" s="0" t="n">
-        <v>59237651.35</v>
-      </c>
-      <c r="U57" s="0" t="n">
-        <v>56077561.47</v>
-      </c>
-      <c r="V57" s="0" t="n">
-        <v>54207405.41</v>
-      </c>
-      <c r="W57" s="0" t="n">
-        <v>198713821.4</v>
-      </c>
-      <c r="X57" s="0" t="n">
-        <v>1.9053</v>
-      </c>
-      <c r="Y57" s="0" t="n">
-        <v>169522618.2</v>
-      </c>
-      <c r="Z57" s="0" t="n">
-        <v>4.4995</v>
-      </c>
-      <c r="AA57" s="0" t="s">
-        <v>136</v>
+        <v>0</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="B58" s="0" t="n">
-        <v>546</v>
-      </c>
-      <c r="C58" s="0" t="n">
-        <v>117</v>
-      </c>
-      <c r="D58" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="E58" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="F58" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="G58" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="H58" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="I58" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="J58" s="0" t="n">
-        <v>149.051</v>
-      </c>
-      <c r="K58" s="0" t="n">
-        <v>150.0578</v>
-      </c>
-      <c r="L58" s="0" t="n">
-        <v>513.76</v>
-      </c>
-      <c r="M58" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="N58" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O58" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="P58" s="0" t="n">
-        <v>47.6054</v>
-      </c>
-      <c r="Q58" s="0" t="n">
-        <v>8419806.046</v>
-      </c>
-      <c r="R58" s="0" t="n">
-        <v>7954686.919</v>
-      </c>
-      <c r="S58" s="0" t="n">
-        <v>8318226.561</v>
-      </c>
-      <c r="T58" s="0" t="n">
-        <v>8007517.592</v>
-      </c>
-      <c r="U58" s="0" t="n">
-        <v>7319791.067</v>
-      </c>
-      <c r="V58" s="0" t="n">
-        <v>7367477.802</v>
-      </c>
-      <c r="W58" s="0" t="n">
-        <v>24692719.53</v>
-      </c>
-      <c r="X58" s="0" t="n">
-        <v>2.9711</v>
-      </c>
-      <c r="Y58" s="0" t="n">
-        <v>22694786.46</v>
-      </c>
-      <c r="Z58" s="0" t="n">
-        <v>5.0765</v>
-      </c>
-      <c r="AA58" s="0" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="B59" s="0" t="n">
-        <v>598</v>
-      </c>
-      <c r="C59" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="D59" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="E59" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="F59" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="G59" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="H59" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="I59" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="J59" s="0" t="n">
-        <v>117.079</v>
-      </c>
-      <c r="K59" s="0" t="n">
-        <v>118.0857</v>
-      </c>
-      <c r="L59" s="0" t="n">
-        <v>584.32</v>
-      </c>
-      <c r="M59" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="N59" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O59" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="P59" s="0" t="n">
-        <v>48.7105</v>
-      </c>
-      <c r="Q59" s="0" t="n">
-        <v>21775405.56</v>
-      </c>
-      <c r="R59" s="0" t="n">
-        <v>23532222.57</v>
-      </c>
-      <c r="S59" s="0" t="n">
-        <v>24850183.03</v>
-      </c>
-      <c r="T59" s="0" t="n">
-        <v>18841152.12</v>
-      </c>
-      <c r="U59" s="0" t="n">
-        <v>22892660.2</v>
-      </c>
-      <c r="V59" s="0" t="n">
-        <v>21760739.43</v>
-      </c>
-      <c r="W59" s="0" t="n">
-        <v>70157811.17</v>
-      </c>
-      <c r="X59" s="0" t="n">
-        <v>6.5963</v>
-      </c>
-      <c r="Y59" s="0" t="n">
-        <v>63494551.76</v>
-      </c>
-      <c r="Z59" s="0" t="n">
-        <v>9.877</v>
-      </c>
-      <c r="AA59" s="0" t="s">
-        <v>144</v>
+        <v>0</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="G60" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="H60" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="I60" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J60" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="K60" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="L60" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="M60" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="N60" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="O60" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="P60" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q60" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="R60" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="S60" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="T60" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="U60" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="B60" s="0" t="n">
-        <v>615</v>
-      </c>
-      <c r="C60" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="D60" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="E60" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="F60" s="0" t="s">
+      <c r="V60" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="W60" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="X60" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y60" s="0" t="s">
         <v>123</v>
-      </c>
-      <c r="G60" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="H60" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="I60" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="J60" s="0" t="n">
-        <v>115.0633</v>
-      </c>
-      <c r="K60" s="0" t="n">
-        <v>116.0699</v>
-      </c>
-      <c r="L60" s="0" t="n">
-        <v>607.75</v>
-      </c>
-      <c r="M60" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="N60" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O60" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="P60" s="0" t="n">
-        <v>45.8868</v>
-      </c>
-      <c r="Q60" s="0" t="n">
-        <v>59134552.3</v>
-      </c>
-      <c r="R60" s="0" t="n">
-        <v>57461952.47</v>
-      </c>
-      <c r="S60" s="0" t="n">
-        <v>60069535.6</v>
-      </c>
-      <c r="T60" s="0" t="n">
-        <v>55657781.22</v>
-      </c>
-      <c r="U60" s="0" t="n">
-        <v>56998852.39</v>
-      </c>
-      <c r="V60" s="0" t="n">
-        <v>60837200.27</v>
-      </c>
-      <c r="W60" s="0" t="n">
-        <v>176666040.4</v>
-      </c>
-      <c r="X60" s="0" t="n">
-        <v>2.2433</v>
-      </c>
-      <c r="Y60" s="0" t="n">
-        <v>173493833.9</v>
-      </c>
-      <c r="Z60" s="0" t="n">
-        <v>4.6483</v>
-      </c>
-      <c r="AA60" s="0" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>643</v>
-      </c>
-      <c r="C61" s="0" t="n">
-        <v>153</v>
+        <v>469</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>125</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="J61" s="0" t="n">
-        <v>168.0283</v>
+        <v>113.0589</v>
       </c>
       <c r="K61" s="0" t="n">
-        <v>169.0349</v>
+        <v>413.81</v>
       </c>
       <c r="L61" s="0" t="n">
-        <v>653.98</v>
+        <v>2</v>
       </c>
       <c r="M61" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="N61" s="0" t="n">
+        <v>56.4424</v>
+      </c>
+      <c r="O61" s="0" t="n">
+        <v>59809754.62</v>
+      </c>
+      <c r="P61" s="0" t="n">
+        <v>63773291.22</v>
+      </c>
+      <c r="Q61" s="0" t="n">
+        <v>61630638.37</v>
+      </c>
+      <c r="R61" s="0" t="n">
+        <v>59131129.43</v>
+      </c>
+      <c r="S61" s="0" t="n">
+        <v>63874747.95</v>
+      </c>
+      <c r="T61" s="0" t="n">
+        <v>66320708.84</v>
+      </c>
+      <c r="U61" s="0" t="n">
+        <v>185213684.2</v>
+      </c>
+      <c r="V61" s="0" t="n">
+        <v>3.2135</v>
+      </c>
+      <c r="W61" s="0" t="n">
+        <v>189326586.2</v>
+      </c>
+      <c r="X61" s="0" t="n">
+        <v>5.7923</v>
+      </c>
+      <c r="Y61" s="0" t="s">
         <v>131</v>
-      </c>
-      <c r="N61" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O61" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="P61" s="0" t="n">
-        <v>44.5238</v>
-      </c>
-      <c r="Q61" s="0" t="n">
-        <v>6594546.767</v>
-      </c>
-      <c r="R61" s="0" t="n">
-        <v>6679574.386</v>
-      </c>
-      <c r="S61" s="0" t="n">
-        <v>6147241.614</v>
-      </c>
-      <c r="T61" s="0" t="n">
-        <v>6238970.002</v>
-      </c>
-      <c r="U61" s="0" t="n">
-        <v>6287508.483</v>
-      </c>
-      <c r="V61" s="0" t="n">
-        <v>7032912.143</v>
-      </c>
-      <c r="W61" s="0" t="n">
-        <v>19421362.77</v>
-      </c>
-      <c r="X61" s="0" t="n">
-        <v>4.4174</v>
-      </c>
-      <c r="Y61" s="0" t="n">
-        <v>19559390.63</v>
-      </c>
-      <c r="Z61" s="0" t="n">
-        <v>6.8259</v>
-      </c>
-      <c r="AA61" s="0" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>723</v>
+        <v>495</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>49</v>
+        <v>782</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="J62" s="0" t="n">
-        <v>119.0582</v>
+        <v>136.0385</v>
       </c>
       <c r="K62" s="0" t="n">
-        <v>120.0649</v>
+        <v>440.1</v>
       </c>
       <c r="L62" s="0" t="n">
-        <v>704.42</v>
+        <v>2</v>
       </c>
       <c r="M62" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N62" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O62" s="0" t="s">
-        <v>126</v>
+        <v>44.0249</v>
+      </c>
+      <c r="O62" s="0" t="n">
+        <v>1164487.316</v>
       </c>
       <c r="P62" s="0" t="n">
-        <v>49.3092</v>
+        <v>1376477.974</v>
       </c>
       <c r="Q62" s="0" t="n">
-        <v>8652081.298</v>
+        <v>1531498.698</v>
       </c>
       <c r="R62" s="0" t="n">
-        <v>8068845.038</v>
+        <v>1398304.361</v>
       </c>
       <c r="S62" s="0" t="n">
-        <v>8480535.291</v>
+        <v>1633581.631</v>
       </c>
       <c r="T62" s="0" t="n">
-        <v>7567115.792</v>
+        <v>2129396.512</v>
       </c>
       <c r="U62" s="0" t="n">
-        <v>9299021.427</v>
+        <v>4072463.988</v>
       </c>
       <c r="V62" s="0" t="n">
-        <v>8807513.566</v>
+        <v>13.5722</v>
       </c>
       <c r="W62" s="0" t="n">
-        <v>25201461.63</v>
+        <v>5161282.504</v>
       </c>
       <c r="X62" s="0" t="n">
-        <v>3.5682</v>
-      </c>
-      <c r="Y62" s="0" t="n">
-        <v>25673650.79</v>
-      </c>
-      <c r="Z62" s="0" t="n">
-        <v>10.4293</v>
-      </c>
-      <c r="AA62" s="0" t="s">
-        <v>156</v>
+        <v>21.6925</v>
+      </c>
+      <c r="Y62" s="0" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>735</v>
+        <v>528</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>774</v>
+        <v>13</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="J63" s="0" t="n">
-        <v>125.0147</v>
+        <v>131.0946</v>
       </c>
       <c r="K63" s="0" t="n">
-        <v>126.0217</v>
+        <v>483.77</v>
       </c>
       <c r="L63" s="0" t="n">
-        <v>714.99</v>
+        <v>2</v>
       </c>
       <c r="M63" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N63" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O63" s="0" t="s">
-        <v>126</v>
+        <v>48.2759</v>
+      </c>
+      <c r="O63" s="0" t="n">
+        <v>65543883.46</v>
       </c>
       <c r="P63" s="0" t="n">
-        <v>52.8515</v>
+        <v>65475290.35</v>
       </c>
       <c r="Q63" s="0" t="n">
-        <v>5928286.936</v>
+        <v>67694647.59</v>
       </c>
       <c r="R63" s="0" t="n">
-        <v>5417515.329</v>
+        <v>59237651.35</v>
       </c>
       <c r="S63" s="0" t="n">
-        <v>5820192.77</v>
+        <v>56077561.47</v>
       </c>
       <c r="T63" s="0" t="n">
-        <v>6318313.442</v>
+        <v>54207405.41</v>
       </c>
       <c r="U63" s="0" t="n">
-        <v>7358851.543</v>
+        <v>198713821.4</v>
       </c>
       <c r="V63" s="0" t="n">
-        <v>6698599.786</v>
+        <v>1.9053</v>
       </c>
       <c r="W63" s="0" t="n">
-        <v>17165995.03</v>
+        <v>169522618.2</v>
       </c>
       <c r="X63" s="0" t="n">
-        <v>4.7042</v>
-      </c>
-      <c r="Y63" s="0" t="n">
-        <v>20375764.77</v>
-      </c>
-      <c r="Z63" s="0" t="n">
-        <v>7.752</v>
-      </c>
-      <c r="AA63" s="0" t="s">
-        <v>160</v>
+        <v>4.4995</v>
+      </c>
+      <c r="Y63" s="0" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>738</v>
+        <v>546</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="J64" s="0" t="n">
-        <v>302.0606</v>
+        <v>149.051</v>
       </c>
       <c r="K64" s="0" t="n">
-        <v>303.0674</v>
+        <v>513.76</v>
       </c>
       <c r="L64" s="0" t="n">
-        <v>717.05</v>
+        <v>2</v>
       </c>
       <c r="M64" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N64" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O64" s="0" t="s">
-        <v>126</v>
+        <v>47.6054</v>
+      </c>
+      <c r="O64" s="0" t="n">
+        <v>8419806.046</v>
       </c>
       <c r="P64" s="0" t="n">
-        <v>47.6212</v>
+        <v>7954686.919</v>
       </c>
       <c r="Q64" s="0" t="n">
-        <v>8552283.828</v>
+        <v>8318226.561</v>
       </c>
       <c r="R64" s="0" t="n">
-        <v>7430405.095</v>
+        <v>8007517.592</v>
       </c>
       <c r="S64" s="0" t="n">
-        <v>8442646.234</v>
+        <v>7319791.067</v>
       </c>
       <c r="T64" s="0" t="n">
-        <v>10530094.76</v>
+        <v>7367477.802</v>
       </c>
       <c r="U64" s="0" t="n">
-        <v>10328394.76</v>
+        <v>24692719.53</v>
       </c>
       <c r="V64" s="0" t="n">
-        <v>12041933.18</v>
+        <v>2.9711</v>
       </c>
       <c r="W64" s="0" t="n">
-        <v>24425335.16</v>
+        <v>22694786.46</v>
       </c>
       <c r="X64" s="0" t="n">
-        <v>7.5966</v>
-      </c>
-      <c r="Y64" s="0" t="n">
-        <v>32900422.69</v>
-      </c>
-      <c r="Z64" s="0" t="n">
-        <v>8.5397</v>
-      </c>
-      <c r="AA64" s="0" t="s">
-        <v>164</v>
+        <v>5.0765</v>
+      </c>
+      <c r="Y64" s="0" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>767</v>
+        <v>598</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>780</v>
+        <v>18</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="J65" s="0" t="n">
-        <v>132.0535</v>
+        <v>117.079</v>
       </c>
       <c r="K65" s="0" t="n">
-        <v>133.0602</v>
+        <v>584.32</v>
       </c>
       <c r="L65" s="0" t="n">
-        <v>733.64</v>
+        <v>2</v>
       </c>
       <c r="M65" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N65" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O65" s="0" t="s">
-        <v>126</v>
+        <v>48.7105</v>
+      </c>
+      <c r="O65" s="0" t="n">
+        <v>21775405.56</v>
       </c>
       <c r="P65" s="0" t="n">
-        <v>50.7965</v>
+        <v>23532222.57</v>
       </c>
       <c r="Q65" s="0" t="n">
-        <v>2465240.29</v>
+        <v>24850183.03</v>
       </c>
       <c r="R65" s="0" t="n">
-        <v>2312034.279</v>
+        <v>18841152.12</v>
       </c>
       <c r="S65" s="0" t="n">
-        <v>2478860.339</v>
+        <v>22892660.2</v>
       </c>
       <c r="T65" s="0" t="n">
-        <v>1261327.834</v>
+        <v>21760739.43</v>
       </c>
       <c r="U65" s="0" t="n">
-        <v>1504831.482</v>
+        <v>70157811.17</v>
       </c>
       <c r="V65" s="0" t="n">
-        <v>1670066.495</v>
+        <v>6.5963</v>
       </c>
       <c r="W65" s="0" t="n">
-        <v>7256134.907</v>
+        <v>63494551.76</v>
       </c>
       <c r="X65" s="0" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="Y65" s="0" t="n">
-        <v>4436225.812</v>
-      </c>
-      <c r="Z65" s="0" t="n">
-        <v>13.9047</v>
-      </c>
-      <c r="AA65" s="0" t="s">
-        <v>168</v>
+        <v>9.877</v>
+      </c>
+      <c r="Y65" s="0" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>768</v>
+        <v>615</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="J66" s="0" t="n">
-        <v>146.0691</v>
+        <v>115.0633</v>
       </c>
       <c r="K66" s="0" t="n">
-        <v>147.0758</v>
+        <v>607.75</v>
       </c>
       <c r="L66" s="0" t="n">
-        <v>735.86</v>
+        <v>2</v>
       </c>
       <c r="M66" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N66" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O66" s="0" t="s">
-        <v>126</v>
+        <v>45.8868</v>
+      </c>
+      <c r="O66" s="0" t="n">
+        <v>59134552.3</v>
       </c>
       <c r="P66" s="0" t="n">
-        <v>47.4401</v>
+        <v>57461952.47</v>
       </c>
       <c r="Q66" s="0" t="n">
-        <v>27880437.27</v>
+        <v>60069535.6</v>
       </c>
       <c r="R66" s="0" t="n">
-        <v>28389759.04</v>
+        <v>55657781.22</v>
       </c>
       <c r="S66" s="0" t="n">
-        <v>27913260.3</v>
+        <v>56998852.39</v>
       </c>
       <c r="T66" s="0" t="n">
-        <v>39816663.53</v>
+        <v>60837200.27</v>
       </c>
       <c r="U66" s="0" t="n">
-        <v>44101276.59</v>
+        <v>176666040.4</v>
       </c>
       <c r="V66" s="0" t="n">
-        <v>43411662.29</v>
+        <v>2.2433</v>
       </c>
       <c r="W66" s="0" t="n">
-        <v>84183456.61</v>
+        <v>173493833.9</v>
       </c>
       <c r="X66" s="0" t="n">
-        <v>1.0158</v>
-      </c>
-      <c r="Y66" s="0" t="n">
-        <v>127329602.4</v>
-      </c>
-      <c r="Z66" s="0" t="n">
-        <v>5.4205</v>
-      </c>
-      <c r="AA66" s="0" t="s">
-        <v>172</v>
+        <v>4.6483</v>
+      </c>
+      <c r="Y66" s="0" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>793</v>
+        <v>643</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>956</v>
+        <v>153</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="J67" s="0" t="n">
-        <v>172.0137</v>
+        <v>168.0283</v>
       </c>
       <c r="K67" s="0" t="n">
-        <v>173.0206</v>
+        <v>653.98</v>
       </c>
       <c r="L67" s="0" t="n">
-        <v>754.37</v>
+        <v>2</v>
       </c>
       <c r="M67" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N67" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O67" s="0" t="s">
-        <v>126</v>
+        <v>44.5238</v>
+      </c>
+      <c r="O67" s="0" t="n">
+        <v>6594546.767</v>
       </c>
       <c r="P67" s="0" t="n">
-        <v>46.7956</v>
+        <v>6679574.386</v>
       </c>
       <c r="Q67" s="0" t="n">
-        <v>202854.8011</v>
+        <v>6147241.614</v>
       </c>
       <c r="R67" s="0" t="n">
-        <v>194138.2384</v>
+        <v>6238970.002</v>
       </c>
       <c r="S67" s="0" t="n">
-        <v>164949.5227</v>
+        <v>6287508.483</v>
       </c>
       <c r="T67" s="0" t="n">
-        <v>160047.3574</v>
+        <v>7032912.143</v>
       </c>
       <c r="U67" s="0" t="n">
-        <v>25984.5007</v>
+        <v>19421362.77</v>
       </c>
       <c r="V67" s="0" t="n">
-        <v>54558.2681</v>
+        <v>4.4174</v>
       </c>
       <c r="W67" s="0" t="n">
-        <v>561942.5623</v>
+        <v>19559390.63</v>
       </c>
       <c r="X67" s="0" t="n">
-        <v>10.5986</v>
-      </c>
-      <c r="Y67" s="0" t="n">
-        <v>240590.1263</v>
-      </c>
-      <c r="Z67" s="0" t="n">
-        <v>88.0499</v>
-      </c>
-      <c r="AA67" s="0" t="s">
-        <v>176</v>
+        <v>6.8259</v>
+      </c>
+      <c r="Y67" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>806</v>
+        <v>723</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>513</v>
+        <v>49</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="J68" s="0" t="n">
-        <v>324.0359</v>
+        <v>119.0582</v>
       </c>
       <c r="K68" s="0" t="n">
-        <v>325.0424</v>
+        <v>704.42</v>
       </c>
       <c r="L68" s="0" t="n">
-        <v>768.94</v>
+        <v>2</v>
       </c>
       <c r="M68" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N68" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O68" s="0" t="s">
-        <v>126</v>
+        <v>49.3092</v>
+      </c>
+      <c r="O68" s="0" t="n">
+        <v>8652081.298</v>
       </c>
       <c r="P68" s="0" t="n">
-        <v>53.3957</v>
+        <v>8068845.038</v>
       </c>
       <c r="Q68" s="0" t="n">
-        <v>1321073.961</v>
+        <v>8480535.291</v>
       </c>
       <c r="R68" s="0" t="n">
-        <v>1417953.149</v>
+        <v>7567115.792</v>
       </c>
       <c r="S68" s="0" t="n">
-        <v>1424344.249</v>
+        <v>9299021.427</v>
       </c>
       <c r="T68" s="0" t="n">
-        <v>0</v>
+        <v>8807513.566</v>
       </c>
       <c r="U68" s="0" t="n">
-        <v>0</v>
+        <v>25201461.63</v>
       </c>
       <c r="V68" s="0" t="n">
-        <v>0</v>
+        <v>3.5682</v>
       </c>
       <c r="W68" s="0" t="n">
-        <v>4163371.36</v>
+        <v>25673650.79</v>
       </c>
       <c r="X68" s="0" t="n">
-        <v>4.1697</v>
-      </c>
-      <c r="Y68" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z68" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="AA68" s="0" t="s">
-        <v>181</v>
+        <v>10.4293</v>
+      </c>
+      <c r="Y68" s="0" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>905</v>
+        <v>735</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>1067</v>
+        <v>774</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="J69" s="0" t="n">
-        <v>180.0634</v>
+        <v>125.0147</v>
       </c>
       <c r="K69" s="0" t="n">
-        <v>203.052</v>
+        <v>714.99</v>
       </c>
       <c r="L69" s="0" t="n">
-        <v>865.23</v>
+        <v>2</v>
       </c>
       <c r="M69" s="0" t="s">
-        <v>185</v>
+        <v>130</v>
       </c>
       <c r="N69" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O69" s="0" t="s">
-        <v>126</v>
+        <v>52.8515</v>
+      </c>
+      <c r="O69" s="0" t="n">
+        <v>5928286.936</v>
       </c>
       <c r="P69" s="0" t="n">
-        <v>52.483</v>
+        <v>5417515.329</v>
       </c>
       <c r="Q69" s="0" t="n">
-        <v>16328.8018</v>
+        <v>5820192.77</v>
       </c>
       <c r="R69" s="0" t="n">
-        <v>48297.9894</v>
+        <v>6318313.442</v>
       </c>
       <c r="S69" s="0" t="n">
-        <v>23143.935</v>
+        <v>7358851.543</v>
       </c>
       <c r="T69" s="0" t="n">
-        <v>148990.3794</v>
+        <v>6698599.786</v>
       </c>
       <c r="U69" s="0" t="n">
-        <v>143027.0298</v>
+        <v>17165995.03</v>
       </c>
       <c r="V69" s="0" t="n">
-        <v>170512.9603</v>
+        <v>4.7042</v>
       </c>
       <c r="W69" s="0" t="n">
-        <v>87770.7262</v>
+        <v>20375764.77</v>
       </c>
       <c r="X69" s="0" t="n">
-        <v>57.5538</v>
-      </c>
-      <c r="Y69" s="0" t="n">
-        <v>462530.3694</v>
-      </c>
-      <c r="Z69" s="0" t="n">
-        <v>9.3778</v>
-      </c>
-      <c r="AA69" s="0" t="s">
-        <v>186</v>
+        <v>7.752</v>
+      </c>
+      <c r="Y69" s="0" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>949</v>
+        <v>738</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>566</v>
+        <v>102</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="J70" s="0" t="n">
-        <v>443.0243</v>
+        <v>302.0606</v>
       </c>
       <c r="K70" s="0" t="n">
-        <v>444.0304</v>
+        <v>717.05</v>
       </c>
       <c r="L70" s="0" t="n">
-        <v>919.02</v>
+        <v>2</v>
       </c>
       <c r="M70" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N70" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O70" s="0" t="s">
-        <v>126</v>
+        <v>47.6212</v>
+      </c>
+      <c r="O70" s="0" t="n">
+        <v>8552283.828</v>
       </c>
       <c r="P70" s="0" t="n">
-        <v>53.0289</v>
+        <v>7430405.095</v>
       </c>
       <c r="Q70" s="0" t="n">
-        <v>776953.5136</v>
+        <v>8442646.234</v>
       </c>
       <c r="R70" s="0" t="n">
-        <v>826544.0499</v>
+        <v>10530094.76</v>
       </c>
       <c r="S70" s="0" t="n">
-        <v>809552.8948</v>
+        <v>10328394.76</v>
       </c>
       <c r="T70" s="0" t="n">
-        <v>555138.3365</v>
+        <v>12041933.18</v>
       </c>
       <c r="U70" s="0" t="n">
-        <v>726945.9204</v>
+        <v>24425335.16</v>
       </c>
       <c r="V70" s="0" t="n">
-        <v>682375.6149</v>
+        <v>7.5966</v>
       </c>
       <c r="W70" s="0" t="n">
-        <v>2413050.458</v>
+        <v>32900422.69</v>
       </c>
       <c r="X70" s="0" t="n">
-        <v>3.1331</v>
-      </c>
-      <c r="Y70" s="0" t="n">
-        <v>1964459.872</v>
-      </c>
-      <c r="Z70" s="0" t="n">
-        <v>13.6155</v>
-      </c>
-      <c r="AA70" s="0" t="s">
-        <v>190</v>
+        <v>8.5397</v>
+      </c>
+      <c r="Y70" s="0" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>1022</v>
-      </c>
-      <c r="C71" s="0" t="s">
-        <v>191</v>
+        <v>767</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>780</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="J71" s="0" t="n">
-        <v>146.1055</v>
+        <v>132.0535</v>
       </c>
       <c r="K71" s="0" t="n">
-        <v>147.1122</v>
+        <v>733.64</v>
       </c>
       <c r="L71" s="0" t="n">
-        <v>1282.28</v>
+        <v>2</v>
       </c>
       <c r="M71" s="0" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="N71" s="0" t="n">
+        <v>50.7965</v>
+      </c>
+      <c r="O71" s="0" t="n">
+        <v>2465240.29</v>
+      </c>
+      <c r="P71" s="0" t="n">
+        <v>2312034.279</v>
+      </c>
+      <c r="Q71" s="0" t="n">
+        <v>2478860.339</v>
+      </c>
+      <c r="R71" s="0" t="n">
+        <v>1261327.834</v>
+      </c>
+      <c r="S71" s="0" t="n">
+        <v>1504831.482</v>
+      </c>
+      <c r="T71" s="0" t="n">
+        <v>1670066.495</v>
+      </c>
+      <c r="U71" s="0" t="n">
+        <v>7256134.907</v>
+      </c>
+      <c r="V71" s="0" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="W71" s="0" t="n">
+        <v>4436225.812</v>
+      </c>
+      <c r="X71" s="0" t="n">
+        <v>13.9047</v>
+      </c>
+      <c r="Y71" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B72" s="0" t="n">
+        <v>768</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="F72" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="G72" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="H72" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="I72" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="J72" s="0" t="n">
+        <v>146.0691</v>
+      </c>
+      <c r="K72" s="0" t="n">
+        <v>735.86</v>
+      </c>
+      <c r="L72" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="O71" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="P71" s="0" t="n">
-        <v>53.8925</v>
-      </c>
-      <c r="Q71" s="0" t="n">
-        <v>19440344.69</v>
-      </c>
-      <c r="R71" s="0" t="n">
-        <v>19514108.63</v>
-      </c>
-      <c r="S71" s="0" t="n">
-        <v>17696364.21</v>
-      </c>
-      <c r="T71" s="0" t="n">
-        <v>11477221.32</v>
-      </c>
-      <c r="U71" s="0" t="n">
-        <v>13726671.61</v>
-      </c>
-      <c r="V71" s="0" t="n">
-        <v>15013706.84</v>
-      </c>
-      <c r="W71" s="0" t="n">
-        <v>56650817.52</v>
-      </c>
-      <c r="X71" s="0" t="n">
-        <v>5.4483</v>
-      </c>
-      <c r="Y71" s="0" t="n">
-        <v>40217599.77</v>
-      </c>
-      <c r="Z71" s="0" t="n">
-        <v>13.3519</v>
-      </c>
-      <c r="AA71" s="0" t="s">
-        <v>195</v>
+      <c r="M72" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="N72" s="0" t="n">
+        <v>47.4401</v>
+      </c>
+      <c r="O72" s="0" t="n">
+        <v>27880437.27</v>
+      </c>
+      <c r="P72" s="0" t="n">
+        <v>28389759.04</v>
+      </c>
+      <c r="Q72" s="0" t="n">
+        <v>27913260.3</v>
+      </c>
+      <c r="R72" s="0" t="n">
+        <v>39816663.53</v>
+      </c>
+      <c r="S72" s="0" t="n">
+        <v>44101276.59</v>
+      </c>
+      <c r="T72" s="0" t="n">
+        <v>43411662.29</v>
+      </c>
+      <c r="U72" s="0" t="n">
+        <v>84183456.61</v>
+      </c>
+      <c r="V72" s="0" t="n">
+        <v>1.0158</v>
+      </c>
+      <c r="W72" s="0" t="n">
+        <v>127329602.4</v>
+      </c>
+      <c r="X72" s="0" t="n">
+        <v>5.4205</v>
+      </c>
+      <c r="Y72" s="0" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="B73" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>198</v>
+        <v>124</v>
+      </c>
+      <c r="B73" s="0" t="n">
+        <v>793</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>956</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>201</v>
+        <v>128</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="J73" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="K73" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="L73" s="0" t="s">
-        <v>108</v>
+        <v>128</v>
+      </c>
+      <c r="J73" s="0" t="n">
+        <v>172.0137</v>
+      </c>
+      <c r="K73" s="0" t="n">
+        <v>754.37</v>
+      </c>
+      <c r="L73" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="M73" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="N73" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="O73" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="P73" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q73" s="0" t="s">
-        <v>113</v>
+        <v>130</v>
+      </c>
+      <c r="N73" s="0" t="n">
+        <v>46.7956</v>
+      </c>
+      <c r="O73" s="0" t="n">
+        <v>202854.8011</v>
+      </c>
+      <c r="P73" s="0" t="n">
+        <v>194138.2384</v>
+      </c>
+      <c r="Q73" s="0" t="n">
+        <v>164949.5227</v>
+      </c>
+      <c r="R73" s="0" t="n">
+        <v>160047.3574</v>
+      </c>
+      <c r="S73" s="0" t="n">
+        <v>25984.5007</v>
+      </c>
+      <c r="T73" s="0" t="n">
+        <v>54558.2681</v>
+      </c>
+      <c r="U73" s="0" t="n">
+        <v>561942.5623</v>
+      </c>
+      <c r="V73" s="0" t="n">
+        <v>10.5986</v>
+      </c>
+      <c r="W73" s="0" t="n">
+        <v>240590.1263</v>
+      </c>
+      <c r="X73" s="0" t="n">
+        <v>88.0499</v>
+      </c>
+      <c r="Y73" s="0" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>205</v>
+        <v>124</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>6</v>
+        <v>806</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>1</v>
+        <v>513</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="G74" s="0" t="n">
-        <v>114.0654</v>
-      </c>
-      <c r="H74" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" s="0" t="n">
-        <v>413.81</v>
+        <v>128</v>
+      </c>
+      <c r="G74" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="H74" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="I74" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="J74" s="0" t="n">
-        <v>393.55</v>
+        <v>324.0359</v>
       </c>
       <c r="K74" s="0" t="n">
-        <v>447.87</v>
+        <v>768.94</v>
       </c>
       <c r="L74" s="0" t="n">
-        <v>59579140.67</v>
-      </c>
-      <c r="M74" s="0" t="n">
-        <v>63545698.19</v>
+        <v>2</v>
+      </c>
+      <c r="M74" s="0" t="s">
+        <v>130</v>
       </c>
       <c r="N74" s="0" t="n">
-        <v>61393680.89</v>
+        <v>53.3957</v>
       </c>
       <c r="O74" s="0" t="n">
-        <v>59131129.43</v>
+        <v>1321073.961</v>
       </c>
       <c r="P74" s="0" t="n">
-        <v>63693769.3</v>
+        <v>1417953.149</v>
       </c>
       <c r="Q74" s="0" t="n">
-        <v>66308065.78</v>
+        <v>1424344.249</v>
+      </c>
+      <c r="R74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U74" s="0" t="n">
+        <v>4163371.36</v>
+      </c>
+      <c r="V74" s="0" t="n">
+        <v>4.1697</v>
+      </c>
+      <c r="W74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X74" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y74" s="0" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>205</v>
+        <v>124</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>7</v>
+        <v>905</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>7</v>
+        <v>1067</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>123</v>
+        <v>186</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="G75" s="0" t="n">
-        <v>116.0699</v>
-      </c>
-      <c r="H75" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" s="0" t="n">
-        <v>607.75</v>
+        <v>128</v>
+      </c>
+      <c r="G75" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="H75" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="I75" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="J75" s="0" t="n">
-        <v>587.39</v>
+        <v>180.0634</v>
       </c>
       <c r="K75" s="0" t="n">
-        <v>648.11</v>
+        <v>865.23</v>
       </c>
       <c r="L75" s="0" t="n">
-        <v>59134552.3</v>
-      </c>
-      <c r="M75" s="0" t="n">
-        <v>57461952.47</v>
+        <v>2</v>
+      </c>
+      <c r="M75" s="0" t="s">
+        <v>130</v>
       </c>
       <c r="N75" s="0" t="n">
-        <v>60069535.6</v>
+        <v>52.483</v>
       </c>
       <c r="O75" s="0" t="n">
-        <v>55657781.22</v>
+        <v>16328.8018</v>
       </c>
       <c r="P75" s="0" t="n">
-        <v>56998852.39</v>
+        <v>48297.9894</v>
       </c>
       <c r="Q75" s="0" t="n">
-        <v>60837200.27</v>
+        <v>23143.935</v>
+      </c>
+      <c r="R75" s="0" t="n">
+        <v>148990.3794</v>
+      </c>
+      <c r="S75" s="0" t="n">
+        <v>143027.0298</v>
+      </c>
+      <c r="T75" s="0" t="n">
+        <v>170512.9603</v>
+      </c>
+      <c r="U75" s="0" t="n">
+        <v>87770.7262</v>
+      </c>
+      <c r="V75" s="0" t="n">
+        <v>57.5538</v>
+      </c>
+      <c r="W75" s="0" t="n">
+        <v>462530.3694</v>
+      </c>
+      <c r="X75" s="0" t="n">
+        <v>9.3778</v>
+      </c>
+      <c r="Y75" s="0" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>205</v>
+        <v>124</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>13</v>
+        <v>949</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>4</v>
+        <v>566</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>123</v>
+        <v>189</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>123</v>
+        <v>190</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="G76" s="0" t="n">
-        <v>132.1014</v>
-      </c>
-      <c r="H76" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" s="0" t="n">
-        <v>483.77</v>
+        <v>128</v>
+      </c>
+      <c r="G76" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="H76" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="I76" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="J76" s="0" t="n">
-        <v>455.72</v>
+        <v>443.0243</v>
       </c>
       <c r="K76" s="0" t="n">
-        <v>541.07</v>
+        <v>919.02</v>
       </c>
       <c r="L76" s="0" t="n">
-        <v>65543883.46</v>
-      </c>
-      <c r="M76" s="0" t="n">
-        <v>65475290.35</v>
+        <v>2</v>
+      </c>
+      <c r="M76" s="0" t="s">
+        <v>130</v>
       </c>
       <c r="N76" s="0" t="n">
-        <v>67694647.59</v>
+        <v>53.0289</v>
       </c>
       <c r="O76" s="0" t="n">
-        <v>59237651.35</v>
+        <v>776953.5136</v>
       </c>
       <c r="P76" s="0" t="n">
-        <v>56077561.47</v>
+        <v>826544.0499</v>
       </c>
       <c r="Q76" s="0" t="n">
-        <v>54207405.41</v>
+        <v>809552.8948</v>
+      </c>
+      <c r="R76" s="0" t="n">
+        <v>555138.3365</v>
+      </c>
+      <c r="S76" s="0" t="n">
+        <v>726945.9204</v>
+      </c>
+      <c r="T76" s="0" t="n">
+        <v>682375.6149</v>
+      </c>
+      <c r="U76" s="0" t="n">
+        <v>2413050.458</v>
+      </c>
+      <c r="V76" s="0" t="n">
+        <v>3.1331</v>
+      </c>
+      <c r="W76" s="0" t="n">
+        <v>1964459.872</v>
+      </c>
+      <c r="X76" s="0" t="n">
+        <v>13.6155</v>
+      </c>
+      <c r="Y76" s="0" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>205</v>
+        <v>124</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="C77" s="0" t="n">
-        <v>13</v>
+        <v>1022</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>193</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>123</v>
+        <v>194</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>123</v>
+        <v>195</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="G77" s="0" t="n">
-        <v>147.0758</v>
-      </c>
-      <c r="H77" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" s="0" t="n">
-        <v>735.86</v>
+        <v>128</v>
+      </c>
+      <c r="G77" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="H77" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="I77" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="J77" s="0" t="n">
-        <v>719.74</v>
+        <v>146.1055</v>
       </c>
       <c r="K77" s="0" t="n">
-        <v>768.94</v>
+        <v>1282.28</v>
       </c>
       <c r="L77" s="0" t="n">
-        <v>27880437.27</v>
-      </c>
-      <c r="M77" s="0" t="n">
-        <v>28389759.04</v>
+        <v>2</v>
+      </c>
+      <c r="M77" s="0" t="s">
+        <v>130</v>
       </c>
       <c r="N77" s="0" t="n">
-        <v>27913260.3</v>
+        <v>53.8925</v>
       </c>
       <c r="O77" s="0" t="n">
-        <v>39816663.53</v>
+        <v>19440344.69</v>
       </c>
       <c r="P77" s="0" t="n">
-        <v>44101276.59</v>
+        <v>19514108.63</v>
       </c>
       <c r="Q77" s="0" t="n">
-        <v>43411662.29</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="B78" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="C78" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="D78" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="E78" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="F78" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="G78" s="0" t="n">
-        <v>118.0857</v>
-      </c>
-      <c r="H78" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" s="0" t="n">
-        <v>584.32</v>
-      </c>
-      <c r="J78" s="0" t="n">
-        <v>558.3</v>
-      </c>
-      <c r="K78" s="0" t="n">
-        <v>621.66</v>
-      </c>
-      <c r="L78" s="0" t="n">
-        <v>21775405.56</v>
-      </c>
-      <c r="M78" s="0" t="n">
-        <v>23532222.57</v>
-      </c>
-      <c r="N78" s="0" t="n">
-        <v>24850183.03</v>
-      </c>
-      <c r="O78" s="0" t="n">
-        <v>18841152.12</v>
-      </c>
-      <c r="P78" s="0" t="n">
-        <v>22892660.2</v>
-      </c>
-      <c r="Q78" s="0" t="n">
-        <v>21760739.43</v>
+        <v>17696364.21</v>
+      </c>
+      <c r="R77" s="0" t="n">
+        <v>11477221.32</v>
+      </c>
+      <c r="S77" s="0" t="n">
+        <v>13726671.61</v>
+      </c>
+      <c r="T77" s="0" t="n">
+        <v>15013706.84</v>
+      </c>
+      <c r="U77" s="0" t="n">
+        <v>56650817.52</v>
+      </c>
+      <c r="V77" s="0" t="n">
+        <v>5.4483</v>
+      </c>
+      <c r="W77" s="0" t="n">
+        <v>40217599.77</v>
+      </c>
+      <c r="X77" s="0" t="n">
+        <v>13.3519</v>
+      </c>
+      <c r="Y77" s="0" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="F79" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="G79" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="H79" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="B79" s="0" t="n">
-        <v>49</v>
-      </c>
-      <c r="C79" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="D79" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="E79" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="F79" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="G79" s="0" t="n">
-        <v>120.0649</v>
-      </c>
-      <c r="H79" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" s="0" t="n">
-        <v>704.42</v>
-      </c>
-      <c r="J79" s="0" t="n">
-        <v>691.29</v>
-      </c>
-      <c r="K79" s="0" t="n">
-        <v>719.74</v>
-      </c>
-      <c r="L79" s="0" t="n">
-        <v>8652081.298</v>
-      </c>
-      <c r="M79" s="0" t="n">
-        <v>8068845.038</v>
-      </c>
-      <c r="N79" s="0" t="n">
-        <v>8480535.291</v>
-      </c>
-      <c r="O79" s="0" t="n">
-        <v>7567115.792</v>
-      </c>
-      <c r="P79" s="0" t="n">
-        <v>9299021.427</v>
-      </c>
-      <c r="Q79" s="0" t="n">
-        <v>8807513.566</v>
+      <c r="I79" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="J79" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="K79" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="L79" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="M79" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="N79" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="O79" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="P79" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q79" s="0" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>131</v>
+        <v>210</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>147.1122</v>
+        <v>114.0654</v>
       </c>
       <c r="H80" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I80" s="0" t="n">
-        <v>1282.28</v>
+        <v>413.81</v>
       </c>
       <c r="J80" s="0" t="n">
-        <v>1240.7</v>
+        <v>393.55</v>
       </c>
       <c r="K80" s="0" t="n">
-        <v>1327.7</v>
+        <v>447.87</v>
       </c>
       <c r="L80" s="0" t="n">
-        <v>18300216.71</v>
+        <v>59579140.67</v>
       </c>
       <c r="M80" s="0" t="n">
-        <v>18386757.3</v>
+        <v>63545698.19</v>
       </c>
       <c r="N80" s="0" t="n">
-        <v>16584466.96</v>
+        <v>61393680.89</v>
       </c>
       <c r="O80" s="0" t="n">
-        <v>10664352.8</v>
+        <v>59131129.43</v>
       </c>
       <c r="P80" s="0" t="n">
-        <v>12724569.73</v>
+        <v>63693769.3</v>
       </c>
       <c r="Q80" s="0" t="n">
-        <v>13994405.78</v>
+        <v>66308065.78</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>303.0674</v>
+        <v>116.0699</v>
       </c>
       <c r="H81" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I81" s="0" t="n">
-        <v>717.05</v>
+        <v>607.75</v>
       </c>
       <c r="J81" s="0" t="n">
-        <v>702.2</v>
+        <v>587.39</v>
       </c>
       <c r="K81" s="0" t="n">
-        <v>727.4</v>
+        <v>648.11</v>
       </c>
       <c r="L81" s="0" t="n">
-        <v>8552283.828</v>
+        <v>59134552.3</v>
       </c>
       <c r="M81" s="0" t="n">
-        <v>7430405.095</v>
+        <v>57461952.47</v>
       </c>
       <c r="N81" s="0" t="n">
-        <v>8442646.234</v>
+        <v>60069535.6</v>
       </c>
       <c r="O81" s="0" t="n">
-        <v>10530094.76</v>
+        <v>55657781.22</v>
       </c>
       <c r="P81" s="0" t="n">
-        <v>10328394.76</v>
+        <v>56998852.39</v>
       </c>
       <c r="Q81" s="0" t="n">
-        <v>12041933.18</v>
+        <v>60837200.27</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>150.0578</v>
+        <v>132.1014</v>
       </c>
       <c r="H82" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I82" s="0" t="n">
-        <v>513.76</v>
+        <v>483.77</v>
       </c>
       <c r="J82" s="0" t="n">
-        <v>496.87</v>
+        <v>455.72</v>
       </c>
       <c r="K82" s="0" t="n">
-        <v>555.22</v>
+        <v>541.07</v>
       </c>
       <c r="L82" s="0" t="n">
-        <v>8419806.046</v>
+        <v>65543883.46</v>
       </c>
       <c r="M82" s="0" t="n">
-        <v>7954686.919</v>
+        <v>65475290.35</v>
       </c>
       <c r="N82" s="0" t="n">
-        <v>8318226.561</v>
+        <v>67694647.59</v>
       </c>
       <c r="O82" s="0" t="n">
-        <v>8007517.592</v>
+        <v>59237651.35</v>
       </c>
       <c r="P82" s="0" t="n">
-        <v>7319791.067</v>
+        <v>56077561.47</v>
       </c>
       <c r="Q82" s="0" t="n">
-        <v>7367477.802</v>
+        <v>54207405.41</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>153</v>
+        <v>17</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>169.0349</v>
+        <v>147.0758</v>
       </c>
       <c r="H83" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I83" s="0" t="n">
-        <v>653.98</v>
+        <v>735.86</v>
       </c>
       <c r="J83" s="0" t="n">
-        <v>630.69</v>
+        <v>719.74</v>
       </c>
       <c r="K83" s="0" t="n">
-        <v>667.64</v>
+        <v>768.94</v>
       </c>
       <c r="L83" s="0" t="n">
-        <v>6594546.767</v>
+        <v>27880437.27</v>
       </c>
       <c r="M83" s="0" t="n">
-        <v>6679574.386</v>
+        <v>28389759.04</v>
       </c>
       <c r="N83" s="0" t="n">
-        <v>6147241.614</v>
+        <v>27913260.3</v>
       </c>
       <c r="O83" s="0" t="n">
-        <v>6238970.002</v>
+        <v>39816663.53</v>
       </c>
       <c r="P83" s="0" t="n">
-        <v>6287508.483</v>
+        <v>44101276.59</v>
       </c>
       <c r="Q83" s="0" t="n">
-        <v>7032912.143</v>
+        <v>43411662.29</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>513</v>
+        <v>18</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>325.0424</v>
+        <v>118.0857</v>
       </c>
       <c r="H84" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I84" s="0" t="n">
-        <v>768.94</v>
+        <v>584.32</v>
       </c>
       <c r="J84" s="0" t="n">
-        <v>757.1</v>
+        <v>558.3</v>
       </c>
       <c r="K84" s="0" t="n">
-        <v>777.81</v>
+        <v>621.66</v>
       </c>
       <c r="L84" s="0" t="n">
-        <v>1321073.961</v>
+        <v>21775405.56</v>
       </c>
       <c r="M84" s="0" t="n">
-        <v>1417953.149</v>
+        <v>23532222.57</v>
       </c>
       <c r="N84" s="0" t="n">
-        <v>1424344.249</v>
+        <v>24850183.03</v>
       </c>
       <c r="O84" s="0" t="n">
-        <v>0</v>
+        <v>18841152.12</v>
       </c>
       <c r="P84" s="0" t="n">
-        <v>0</v>
+        <v>22892660.2</v>
       </c>
       <c r="Q84" s="0" t="n">
-        <v>0</v>
+        <v>21760739.43</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>523</v>
+        <v>49</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>185</v>
+        <v>128</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>169.0943</v>
+        <v>120.0649</v>
       </c>
       <c r="H85" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I85" s="0" t="n">
-        <v>1279.2</v>
+        <v>704.42</v>
       </c>
       <c r="J85" s="0" t="n">
-        <v>1261.83</v>
+        <v>691.29</v>
       </c>
       <c r="K85" s="0" t="n">
-        <v>1314.56</v>
+        <v>719.74</v>
       </c>
       <c r="L85" s="0" t="n">
-        <v>1140127.98</v>
+        <v>8652081.298</v>
       </c>
       <c r="M85" s="0" t="n">
-        <v>1127351.323</v>
+        <v>8068845.038</v>
       </c>
       <c r="N85" s="0" t="n">
-        <v>1111897.25</v>
+        <v>8480535.291</v>
       </c>
       <c r="O85" s="0" t="n">
-        <v>812868.519</v>
+        <v>7567115.792</v>
       </c>
       <c r="P85" s="0" t="n">
-        <v>1002101.884</v>
+        <v>9299021.427</v>
       </c>
       <c r="Q85" s="0" t="n">
-        <v>1019301.062</v>
+        <v>8807513.566</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>566</v>
+        <v>79</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>123</v>
+        <v>210</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>444.0304</v>
+        <v>147.1122</v>
       </c>
       <c r="H86" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I86" s="0" t="n">
-        <v>919.02</v>
+        <v>1282.28</v>
       </c>
       <c r="J86" s="0" t="n">
-        <v>910.32</v>
+        <v>1240.7</v>
       </c>
       <c r="K86" s="0" t="n">
-        <v>930.76</v>
+        <v>1327.7</v>
       </c>
       <c r="L86" s="0" t="n">
-        <v>776953.5136</v>
+        <v>18300216.71</v>
       </c>
       <c r="M86" s="0" t="n">
-        <v>826544.0499</v>
+        <v>18386757.3</v>
       </c>
       <c r="N86" s="0" t="n">
-        <v>809552.8948</v>
+        <v>16584466.96</v>
       </c>
       <c r="O86" s="0" t="n">
-        <v>555138.3365</v>
+        <v>10664352.8</v>
       </c>
       <c r="P86" s="0" t="n">
-        <v>726945.9204</v>
+        <v>12724569.73</v>
       </c>
       <c r="Q86" s="0" t="n">
-        <v>682375.6149</v>
+        <v>13994405.78</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>774</v>
+        <v>102</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>126.0217</v>
+        <v>303.0674</v>
       </c>
       <c r="H87" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I87" s="0" t="n">
-        <v>714.99</v>
+        <v>717.05</v>
       </c>
       <c r="J87" s="0" t="n">
-        <v>704.42</v>
+        <v>702.2</v>
       </c>
       <c r="K87" s="0" t="n">
         <v>727.4</v>
       </c>
       <c r="L87" s="0" t="n">
-        <v>5928286.936</v>
+        <v>8552283.828</v>
       </c>
       <c r="M87" s="0" t="n">
-        <v>5417515.329</v>
+        <v>7430405.095</v>
       </c>
       <c r="N87" s="0" t="n">
-        <v>5820192.77</v>
+        <v>8442646.234</v>
       </c>
       <c r="O87" s="0" t="n">
-        <v>6318313.442</v>
+        <v>10530094.76</v>
       </c>
       <c r="P87" s="0" t="n">
-        <v>7358851.543</v>
+        <v>10328394.76</v>
       </c>
       <c r="Q87" s="0" t="n">
-        <v>6698599.786</v>
+        <v>12041933.18</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>780</v>
+        <v>117</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>133.0602</v>
+        <v>150.0578</v>
       </c>
       <c r="H88" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I88" s="0" t="n">
-        <v>733.64</v>
+        <v>513.76</v>
       </c>
       <c r="J88" s="0" t="n">
-        <v>722.81</v>
+        <v>496.87</v>
       </c>
       <c r="K88" s="0" t="n">
-        <v>757.1</v>
+        <v>555.22</v>
       </c>
       <c r="L88" s="0" t="n">
-        <v>2465240.29</v>
+        <v>8419806.046</v>
       </c>
       <c r="M88" s="0" t="n">
-        <v>2312034.279</v>
+        <v>7954686.919</v>
       </c>
       <c r="N88" s="0" t="n">
-        <v>2478860.339</v>
+        <v>8318226.561</v>
       </c>
       <c r="O88" s="0" t="n">
-        <v>1261327.834</v>
+        <v>8007517.592</v>
       </c>
       <c r="P88" s="0" t="n">
-        <v>1504831.482</v>
+        <v>7319791.067</v>
       </c>
       <c r="Q88" s="0" t="n">
-        <v>1670066.495</v>
+        <v>7367477.802</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>782</v>
+        <v>153</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>137.0452</v>
+        <v>169.0349</v>
       </c>
       <c r="H89" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I89" s="0" t="n">
-        <v>440.1</v>
+        <v>653.98</v>
       </c>
       <c r="J89" s="0" t="n">
-        <v>429.32</v>
+        <v>630.69</v>
       </c>
       <c r="K89" s="0" t="n">
-        <v>455.72</v>
+        <v>667.64</v>
       </c>
       <c r="L89" s="0" t="n">
-        <v>1164487.316</v>
+        <v>6594546.767</v>
       </c>
       <c r="M89" s="0" t="n">
-        <v>1376477.974</v>
+        <v>6679574.386</v>
       </c>
       <c r="N89" s="0" t="n">
-        <v>1531498.698</v>
+        <v>6147241.614</v>
       </c>
       <c r="O89" s="0" t="n">
-        <v>1398304.361</v>
+        <v>6238970.002</v>
       </c>
       <c r="P89" s="0" t="n">
-        <v>1633581.631</v>
+        <v>6287508.483</v>
       </c>
       <c r="Q89" s="0" t="n">
-        <v>2129396.512</v>
+        <v>7032912.143</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>937</v>
+        <v>513</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>185</v>
+        <v>128</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>136.0475</v>
+        <v>325.0424</v>
       </c>
       <c r="H90" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I90" s="0" t="n">
-        <v>413.81</v>
+        <v>768.94</v>
       </c>
       <c r="J90" s="0" t="n">
-        <v>402.83</v>
+        <v>757.1</v>
       </c>
       <c r="K90" s="0" t="n">
-        <v>419.78</v>
+        <v>777.81</v>
       </c>
       <c r="L90" s="0" t="n">
-        <v>230613.9561</v>
+        <v>1321073.961</v>
       </c>
       <c r="M90" s="0" t="n">
-        <v>227593.0281</v>
+        <v>1417953.149</v>
       </c>
       <c r="N90" s="0" t="n">
-        <v>236957.4883</v>
+        <v>1424344.249</v>
       </c>
       <c r="O90" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P90" s="0" t="n">
-        <v>180978.6531</v>
+        <v>0</v>
       </c>
       <c r="Q90" s="0" t="n">
-        <v>12643.0648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>956</v>
+        <v>523</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>123</v>
+        <v>211</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>173.0206</v>
+        <v>169.0943</v>
       </c>
       <c r="H91" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I91" s="0" t="n">
-        <v>754.37</v>
+        <v>1279.2</v>
       </c>
       <c r="J91" s="0" t="n">
-        <v>751.31</v>
+        <v>1261.83</v>
       </c>
       <c r="K91" s="0" t="n">
-        <v>760.07</v>
+        <v>1314.56</v>
       </c>
       <c r="L91" s="0" t="n">
-        <v>202854.8011</v>
+        <v>1140127.98</v>
       </c>
       <c r="M91" s="0" t="n">
-        <v>194138.2384</v>
+        <v>1127351.323</v>
       </c>
       <c r="N91" s="0" t="n">
-        <v>164949.5227</v>
+        <v>1111897.25</v>
       </c>
       <c r="O91" s="0" t="n">
-        <v>160047.3574</v>
+        <v>812868.519</v>
       </c>
       <c r="P91" s="0" t="n">
-        <v>25984.5007</v>
+        <v>1002101.884</v>
       </c>
       <c r="Q91" s="0" t="n">
-        <v>54558.2681</v>
+        <v>1019301.062</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>1067</v>
+        <v>566</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>203.052</v>
+        <v>444.0304</v>
       </c>
       <c r="H92" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I92" s="0" t="n">
-        <v>865.23</v>
+        <v>919.02</v>
       </c>
       <c r="J92" s="0" t="n">
-        <v>859.25</v>
+        <v>910.32</v>
       </c>
       <c r="K92" s="0" t="n">
-        <v>871.52</v>
+        <v>930.76</v>
       </c>
       <c r="L92" s="0" t="n">
-        <v>16328.8018</v>
+        <v>776953.5136</v>
       </c>
       <c r="M92" s="0" t="n">
-        <v>48297.9894</v>
+        <v>826544.0499</v>
       </c>
       <c r="N92" s="0" t="n">
-        <v>23143.935</v>
+        <v>809552.8948</v>
       </c>
       <c r="O92" s="0" t="n">
-        <v>148990.3794</v>
+        <v>555138.3365</v>
       </c>
       <c r="P92" s="0" t="n">
-        <v>143027.0298</v>
+        <v>726945.9204</v>
       </c>
       <c r="Q92" s="0" t="n">
-        <v>170512.9603</v>
+        <v>682375.6149</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="B93" s="0" t="n">
+        <v>774</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="E93" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="F93" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="G93" s="0" t="n">
+        <v>126.0217</v>
+      </c>
+      <c r="H93" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I93" s="0" t="n">
+        <v>714.99</v>
+      </c>
+      <c r="J93" s="0" t="n">
+        <v>704.42</v>
+      </c>
+      <c r="K93" s="0" t="n">
+        <v>727.4</v>
+      </c>
+      <c r="L93" s="0" t="n">
+        <v>5928286.936</v>
+      </c>
+      <c r="M93" s="0" t="n">
+        <v>5417515.329</v>
+      </c>
+      <c r="N93" s="0" t="n">
+        <v>5820192.77</v>
+      </c>
+      <c r="O93" s="0" t="n">
+        <v>6318313.442</v>
+      </c>
+      <c r="P93" s="0" t="n">
+        <v>7358851.543</v>
+      </c>
+      <c r="Q93" s="0" t="n">
+        <v>6698599.786</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="B94" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="C94" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="B94" s="0" t="n">
+        <v>780</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>12</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="G94" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="H94" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="I94" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="J94" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="K94" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="L94" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="M94" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="N94" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="O94" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="P94" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q94" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="R94" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="S94" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="T94" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="U94" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="V94" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="W94" s="0" t="s">
-        <v>216</v>
+        <v>128</v>
+      </c>
+      <c r="G94" s="0" t="n">
+        <v>133.0602</v>
+      </c>
+      <c r="H94" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I94" s="0" t="n">
+        <v>733.64</v>
+      </c>
+      <c r="J94" s="0" t="n">
+        <v>722.81</v>
+      </c>
+      <c r="K94" s="0" t="n">
+        <v>757.1</v>
+      </c>
+      <c r="L94" s="0" t="n">
+        <v>2465240.29</v>
+      </c>
+      <c r="M94" s="0" t="n">
+        <v>2312034.279</v>
+      </c>
+      <c r="N94" s="0" t="n">
+        <v>2478860.339</v>
+      </c>
+      <c r="O94" s="0" t="n">
+        <v>1261327.834</v>
+      </c>
+      <c r="P94" s="0" t="n">
+        <v>1504831.482</v>
+      </c>
+      <c r="Q94" s="0" t="n">
+        <v>1670066.495</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>1</v>
+        <v>782</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>469</v>
+        <v>3</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="G95" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="H95" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="I95" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="J95" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="K95" s="0" t="s">
-        <v>131</v>
+        <v>128</v>
+      </c>
+      <c r="G95" s="0" t="n">
+        <v>137.0452</v>
+      </c>
+      <c r="H95" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I95" s="0" t="n">
+        <v>440.1</v>
+      </c>
+      <c r="J95" s="0" t="n">
+        <v>429.32</v>
+      </c>
+      <c r="K95" s="0" t="n">
+        <v>455.72</v>
       </c>
       <c r="L95" s="0" t="n">
-        <v>114.0654</v>
+        <v>1164487.316</v>
       </c>
       <c r="M95" s="0" t="n">
-        <v>1</v>
+        <v>1376477.974</v>
       </c>
       <c r="N95" s="0" t="n">
-        <v>114.0662</v>
-      </c>
-      <c r="O95" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="P95" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q95" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="R95" s="0" t="n">
-        <v>56.4424</v>
-      </c>
-      <c r="S95" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T95" s="0" t="n">
-        <v>99.6059</v>
-      </c>
-      <c r="U95" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V95" s="0" t="n">
-        <v>413.81</v>
-      </c>
-      <c r="W95" s="0" t="n">
-        <v>414</v>
+        <v>1531498.698</v>
+      </c>
+      <c r="O95" s="0" t="n">
+        <v>1398304.361</v>
+      </c>
+      <c r="P95" s="0" t="n">
+        <v>1633581.631</v>
+      </c>
+      <c r="Q95" s="0" t="n">
+        <v>2129396.512</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B96" s="0" t="n">
+        <v>937</v>
+      </c>
+      <c r="C96" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C96" s="0" t="n">
-        <v>469</v>
-      </c>
       <c r="D96" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>122</v>
+        <v>211</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="G96" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="H96" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="I96" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="J96" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="K96" s="0" t="s">
-        <v>185</v>
+        <v>128</v>
+      </c>
+      <c r="G96" s="0" t="n">
+        <v>136.0475</v>
+      </c>
+      <c r="H96" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I96" s="0" t="n">
+        <v>413.81</v>
+      </c>
+      <c r="J96" s="0" t="n">
+        <v>402.83</v>
+      </c>
+      <c r="K96" s="0" t="n">
+        <v>419.78</v>
       </c>
       <c r="L96" s="0" t="n">
-        <v>136.0475</v>
+        <v>230613.9561</v>
       </c>
       <c r="M96" s="0" t="n">
-        <v>1</v>
+        <v>227593.0281</v>
       </c>
       <c r="N96" s="0" t="n">
-        <v>136.0481</v>
-      </c>
-      <c r="O96" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="P96" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q96" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="R96" s="0" t="n">
-        <v>56.4424</v>
-      </c>
-      <c r="S96" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T96" s="0" t="n">
-        <v>99.6059</v>
-      </c>
-      <c r="U96" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V96" s="0" t="n">
-        <v>413.81</v>
-      </c>
-      <c r="W96" s="0" t="n">
-        <v>414</v>
+        <v>236957.4883</v>
+      </c>
+      <c r="O96" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P96" s="0" t="n">
+        <v>180978.6531</v>
+      </c>
+      <c r="Q96" s="0" t="n">
+        <v>12643.0648</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>3</v>
+        <v>956</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>495</v>
+        <v>14</v>
       </c>
       <c r="D97" s="0" t="s">
         <v>128</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="G97" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="H97" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="I97" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="J97" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="K97" s="0" t="s">
-        <v>131</v>
+        <v>128</v>
+      </c>
+      <c r="G97" s="0" t="n">
+        <v>173.0206</v>
+      </c>
+      <c r="H97" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I97" s="0" t="n">
+        <v>754.37</v>
+      </c>
+      <c r="J97" s="0" t="n">
+        <v>751.31</v>
+      </c>
+      <c r="K97" s="0" t="n">
+        <v>760.07</v>
       </c>
       <c r="L97" s="0" t="n">
-        <v>137.0452</v>
+        <v>202854.8011</v>
       </c>
       <c r="M97" s="0" t="n">
-        <v>1</v>
+        <v>194138.2384</v>
       </c>
       <c r="N97" s="0" t="n">
-        <v>137.0458</v>
-      </c>
-      <c r="O97" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="P97" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q97" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="R97" s="0" t="n">
-        <v>44.0249</v>
-      </c>
-      <c r="S97" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T97" s="0" t="n">
-        <v>93.1371</v>
-      </c>
-      <c r="U97" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V97" s="0" t="n">
-        <v>440.1</v>
-      </c>
-      <c r="W97" s="0" t="n">
-        <v>444</v>
+        <v>164949.5227</v>
+      </c>
+      <c r="O97" s="0" t="n">
+        <v>160047.3574</v>
+      </c>
+      <c r="P97" s="0" t="n">
+        <v>25984.5007</v>
+      </c>
+      <c r="Q97" s="0" t="n">
+        <v>54558.2681</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>4</v>
+        <v>1067</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>528</v>
+        <v>16</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="G98" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="H98" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I98" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="J98" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="K98" s="0" t="s">
-        <v>131</v>
+        <v>128</v>
+      </c>
+      <c r="G98" s="0" t="n">
+        <v>203.052</v>
+      </c>
+      <c r="H98" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I98" s="0" t="n">
+        <v>865.23</v>
+      </c>
+      <c r="J98" s="0" t="n">
+        <v>859.25</v>
+      </c>
+      <c r="K98" s="0" t="n">
+        <v>871.52</v>
       </c>
       <c r="L98" s="0" t="n">
-        <v>132.1014</v>
+        <v>16328.8018</v>
       </c>
       <c r="M98" s="0" t="n">
-        <v>1</v>
+        <v>48297.9894</v>
       </c>
       <c r="N98" s="0" t="n">
-        <v>132.1019</v>
-      </c>
-      <c r="O98" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="P98" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q98" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="R98" s="0" t="n">
-        <v>48.2759</v>
-      </c>
-      <c r="S98" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T98" s="0" t="n">
-        <v>98.8384</v>
-      </c>
-      <c r="U98" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V98" s="0" t="n">
-        <v>483.77</v>
-      </c>
-      <c r="W98" s="0" t="n">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="B99" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C99" s="0" t="n">
-        <v>546</v>
-      </c>
-      <c r="D99" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="E99" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="F99" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="G99" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="H99" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="I99" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="J99" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="K99" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="L99" s="0" t="n">
-        <v>150.0578</v>
-      </c>
-      <c r="M99" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" s="0" t="n">
-        <v>150.0583</v>
-      </c>
-      <c r="O99" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="P99" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q99" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="R99" s="0" t="n">
-        <v>47.6054</v>
-      </c>
-      <c r="S99" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T99" s="0" t="n">
-        <v>93.7529</v>
-      </c>
-      <c r="U99" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V99" s="0" t="n">
-        <v>513.76</v>
-      </c>
-      <c r="W99" s="0" t="n">
-        <v>516</v>
+        <v>23143.935</v>
+      </c>
+      <c r="O98" s="0" t="n">
+        <v>148990.3794</v>
+      </c>
+      <c r="P98" s="0" t="n">
+        <v>143027.0298</v>
+      </c>
+      <c r="Q98" s="0" t="n">
+        <v>170512.9603</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="E100" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="F100" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="G100" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="H100" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="I100" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J100" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="K100" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="L100" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="M100" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="N100" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="O100" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="B100" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="C100" s="0" t="n">
-        <v>598</v>
-      </c>
-      <c r="D100" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="E100" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="F100" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="G100" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="H100" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="I100" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="J100" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="K100" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="L100" s="0" t="n">
-        <v>118.0857</v>
-      </c>
-      <c r="M100" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" s="0" t="n">
-        <v>118.0863</v>
-      </c>
-      <c r="O100" s="0" t="s">
-        <v>225</v>
-      </c>
       <c r="P100" s="0" t="s">
-        <v>126</v>
+        <v>218</v>
       </c>
       <c r="Q100" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="R100" s="0" t="n">
-        <v>48.7105</v>
-      </c>
-      <c r="S100" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T100" s="0" t="n">
-        <v>98.9488</v>
-      </c>
-      <c r="U100" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V100" s="0" t="n">
-        <v>584.32</v>
-      </c>
-      <c r="W100" s="0" t="n">
-        <v>582</v>
+      <c r="R100" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="S100" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="T100" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="U100" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="V100" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="W100" s="0" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>615</v>
+        <v>469</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H101" s="0" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="J101" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="K101" s="0" t="s">
-        <v>131</v>
+        <v>210</v>
       </c>
       <c r="L101" s="0" t="n">
-        <v>116.0699</v>
+        <v>114.0654</v>
       </c>
       <c r="M101" s="0" t="n">
         <v>1</v>
       </c>
       <c r="N101" s="0" t="n">
-        <v>116.0706</v>
+        <v>114.0662</v>
       </c>
       <c r="O101" s="0" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="P101" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q101" s="0" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="R101" s="0" t="n">
-        <v>45.8868</v>
+        <v>56.4424</v>
       </c>
       <c r="S101" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T101" s="0" t="n">
-        <v>99.7575</v>
+        <v>99.6059</v>
       </c>
       <c r="U101" s="0" t="n">
         <v>1</v>
       </c>
       <c r="V101" s="0" t="n">
-        <v>607.75</v>
+        <v>413.81</v>
       </c>
       <c r="W101" s="0" t="n">
-        <v>612</v>
+        <v>414</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>643</v>
+        <v>469</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H102" s="0" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="J102" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="K102" s="0" t="s">
-        <v>131</v>
+        <v>211</v>
       </c>
       <c r="L102" s="0" t="n">
-        <v>169.0349</v>
+        <v>136.0475</v>
       </c>
       <c r="M102" s="0" t="n">
         <v>1</v>
       </c>
       <c r="N102" s="0" t="n">
-        <v>169.0356</v>
+        <v>136.0481</v>
       </c>
       <c r="O102" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="P102" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q102" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="P102" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q102" s="0" t="s">
-        <v>219</v>
-      </c>
       <c r="R102" s="0" t="n">
-        <v>44.5238</v>
+        <v>56.4424</v>
       </c>
       <c r="S102" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T102" s="0" t="n">
-        <v>97.0874</v>
+        <v>99.6059</v>
       </c>
       <c r="U102" s="0" t="n">
         <v>1</v>
       </c>
       <c r="V102" s="0" t="n">
-        <v>653.98</v>
+        <v>413.81</v>
       </c>
       <c r="W102" s="0" t="n">
-        <v>648</v>
+        <v>414</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>723</v>
+        <v>495</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H103" s="0" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="J103" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="K103" s="0" t="s">
-        <v>131</v>
+        <v>210</v>
       </c>
       <c r="L103" s="0" t="n">
-        <v>120.0649</v>
+        <v>137.0452</v>
       </c>
       <c r="M103" s="0" t="n">
         <v>1</v>
       </c>
       <c r="N103" s="0" t="n">
-        <v>120.0655</v>
+        <v>137.0458</v>
       </c>
       <c r="O103" s="0" t="s">
         <v>228</v>
       </c>
       <c r="P103" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q103" s="0" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="R103" s="0" t="n">
-        <v>49.3092</v>
+        <v>44.0249</v>
       </c>
       <c r="S103" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T103" s="0" t="n">
-        <v>98.2503</v>
+        <v>93.1371</v>
       </c>
       <c r="U103" s="0" t="n">
         <v>1</v>
       </c>
       <c r="V103" s="0" t="n">
-        <v>704.42</v>
+        <v>440.1</v>
       </c>
       <c r="W103" s="0" t="n">
-        <v>702</v>
+        <v>444</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>735</v>
+        <v>528</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H104" s="0" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="J104" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="K104" s="0" t="s">
-        <v>131</v>
+        <v>210</v>
       </c>
       <c r="L104" s="0" t="n">
-        <v>126.0217</v>
+        <v>132.1014</v>
       </c>
       <c r="M104" s="0" t="n">
         <v>1</v>
       </c>
       <c r="N104" s="0" t="n">
-        <v>126.0219</v>
+        <v>132.1019</v>
       </c>
       <c r="O104" s="0" t="s">
         <v>229</v>
       </c>
       <c r="P104" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q104" s="0" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="R104" s="0" t="n">
-        <v>52.8515</v>
+        <v>48.2759</v>
       </c>
       <c r="S104" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T104" s="0" t="n">
-        <v>91.8689</v>
+        <v>98.8384</v>
       </c>
       <c r="U104" s="0" t="n">
         <v>1</v>
       </c>
       <c r="V104" s="0" t="n">
-        <v>714.99</v>
+        <v>483.77</v>
       </c>
       <c r="W104" s="0" t="n">
-        <v>714</v>
+        <v>486</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>738</v>
+        <v>546</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="I105" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="J105" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="K105" s="0" t="s">
-        <v>131</v>
+        <v>210</v>
       </c>
       <c r="L105" s="0" t="n">
-        <v>303.0674</v>
+        <v>150.0578</v>
       </c>
       <c r="M105" s="0" t="n">
         <v>1</v>
       </c>
       <c r="N105" s="0" t="n">
-        <v>303.0679</v>
+        <v>150.0583</v>
       </c>
       <c r="O105" s="0" t="s">
         <v>230</v>
       </c>
       <c r="P105" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q105" s="0" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="R105" s="0" t="n">
-        <v>47.6212</v>
+        <v>47.6054</v>
       </c>
       <c r="S105" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T105" s="0" t="n">
-        <v>91.4395</v>
+        <v>93.7529</v>
       </c>
       <c r="U105" s="0" t="n">
         <v>1</v>
       </c>
       <c r="V105" s="0" t="n">
-        <v>717.05</v>
+        <v>513.76</v>
       </c>
       <c r="W105" s="0" t="n">
-        <v>714</v>
+        <v>516</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>767</v>
+        <v>598</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="I106" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="J106" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="K106" s="0" t="s">
-        <v>131</v>
+        <v>210</v>
       </c>
       <c r="L106" s="0" t="n">
-        <v>133.0602</v>
+        <v>118.0857</v>
       </c>
       <c r="M106" s="0" t="n">
         <v>1</v>
       </c>
       <c r="N106" s="0" t="n">
-        <v>133.0608</v>
+        <v>118.0863</v>
       </c>
       <c r="O106" s="0" t="s">
         <v>231</v>
       </c>
       <c r="P106" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q106" s="0" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="R106" s="0" t="n">
-        <v>50.7965</v>
+        <v>48.7105</v>
       </c>
       <c r="S106" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T106" s="0" t="n">
-        <v>94.3454</v>
+        <v>98.9488</v>
       </c>
       <c r="U106" s="0" t="n">
         <v>1</v>
       </c>
       <c r="V106" s="0" t="n">
-        <v>733.64</v>
+        <v>584.32</v>
       </c>
       <c r="W106" s="0" t="n">
-        <v>732</v>
+        <v>582</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>768</v>
+        <v>615</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H107" s="0" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="I107" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="J107" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="K107" s="0" t="s">
-        <v>131</v>
+        <v>210</v>
       </c>
       <c r="L107" s="0" t="n">
-        <v>147.0758</v>
+        <v>116.0699</v>
       </c>
       <c r="M107" s="0" t="n">
         <v>1</v>
       </c>
       <c r="N107" s="0" t="n">
-        <v>147.0764</v>
+        <v>116.0706</v>
       </c>
       <c r="O107" s="0" t="s">
         <v>232</v>
       </c>
       <c r="P107" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q107" s="0" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="R107" s="0" t="n">
-        <v>47.4401</v>
+        <v>45.8868</v>
       </c>
       <c r="S107" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T107" s="0" t="n">
-        <v>98.2785</v>
+        <v>99.7575</v>
       </c>
       <c r="U107" s="0" t="n">
         <v>1</v>
       </c>
       <c r="V107" s="0" t="n">
-        <v>735.86</v>
+        <v>607.75</v>
       </c>
       <c r="W107" s="0" t="n">
-        <v>732</v>
+        <v>612</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>793</v>
+        <v>643</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="I108" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="J108" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="K108" s="0" t="s">
-        <v>131</v>
+        <v>210</v>
       </c>
       <c r="L108" s="0" t="n">
-        <v>173.0206</v>
+        <v>169.0349</v>
       </c>
       <c r="M108" s="0" t="n">
         <v>1</v>
       </c>
       <c r="N108" s="0" t="n">
-        <v>173.021</v>
+        <v>169.0356</v>
       </c>
       <c r="O108" s="0" t="s">
         <v>233</v>
       </c>
       <c r="P108" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q108" s="0" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="R108" s="0" t="n">
-        <v>46.7956</v>
+        <v>44.5238</v>
       </c>
       <c r="S108" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T108" s="0" t="n">
-        <v>95.3687</v>
+        <v>97.0874</v>
       </c>
       <c r="U108" s="0" t="n">
         <v>1</v>
       </c>
       <c r="V108" s="0" t="n">
-        <v>754.37</v>
+        <v>653.98</v>
       </c>
       <c r="W108" s="0" t="n">
-        <v>750</v>
+        <v>648</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B109" s="0" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C109" s="0" t="n">
-        <v>806</v>
+        <v>723</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="I109" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="J109" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="K109" s="0" t="s">
-        <v>131</v>
+        <v>210</v>
       </c>
       <c r="L109" s="0" t="n">
-        <v>325.0424</v>
+        <v>120.0649</v>
       </c>
       <c r="M109" s="0" t="n">
         <v>1</v>
       </c>
       <c r="N109" s="0" t="n">
-        <v>325.0431</v>
+        <v>120.0655</v>
       </c>
       <c r="O109" s="0" t="s">
         <v>234</v>
       </c>
       <c r="P109" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q109" s="0" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="R109" s="0" t="n">
-        <v>53.3957</v>
+        <v>49.3092</v>
       </c>
       <c r="S109" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T109" s="0" t="n">
-        <v>92.7484</v>
+        <v>98.2503</v>
       </c>
       <c r="U109" s="0" t="n">
         <v>1</v>
       </c>
       <c r="V109" s="0" t="n">
-        <v>768.94</v>
+        <v>704.42</v>
       </c>
       <c r="W109" s="0" t="n">
-        <v>768</v>
+        <v>702</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B110" s="0" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C110" s="0" t="n">
-        <v>905</v>
+        <v>735</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H110" s="0" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="I110" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="J110" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="K110" s="0" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="L110" s="0" t="n">
-        <v>203.052</v>
+        <v>126.0217</v>
       </c>
       <c r="M110" s="0" t="n">
         <v>1</v>
       </c>
       <c r="N110" s="0" t="n">
-        <v>203.0526</v>
+        <v>126.0219</v>
       </c>
       <c r="O110" s="0" t="s">
         <v>235</v>
       </c>
       <c r="P110" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q110" s="0" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="R110" s="0" t="n">
-        <v>52.483</v>
+        <v>52.8515</v>
       </c>
       <c r="S110" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T110" s="0" t="n">
-        <v>92.3456</v>
+        <v>91.8689</v>
       </c>
       <c r="U110" s="0" t="n">
         <v>1</v>
       </c>
       <c r="V110" s="0" t="n">
-        <v>865.23</v>
+        <v>714.99</v>
       </c>
       <c r="W110" s="0" t="n">
-        <v>864</v>
+        <v>714</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>949</v>
+        <v>738</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="I111" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="J111" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="K111" s="0" t="s">
-        <v>131</v>
+        <v>210</v>
       </c>
       <c r="L111" s="0" t="n">
-        <v>444.0304</v>
+        <v>303.0674</v>
       </c>
       <c r="M111" s="0" t="n">
         <v>1</v>
       </c>
       <c r="N111" s="0" t="n">
-        <v>444.0316</v>
+        <v>303.0679</v>
       </c>
       <c r="O111" s="0" t="s">
         <v>236</v>
       </c>
       <c r="P111" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q111" s="0" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="R111" s="0" t="n">
-        <v>53.0289</v>
+        <v>47.6212</v>
       </c>
       <c r="S111" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T111" s="0" t="n">
-        <v>89.9483</v>
+        <v>91.4395</v>
       </c>
       <c r="U111" s="0" t="n">
         <v>1</v>
       </c>
       <c r="V111" s="0" t="n">
-        <v>919.02</v>
+        <v>717.05</v>
       </c>
       <c r="W111" s="0" t="n">
-        <v>918</v>
+        <v>714</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>1022</v>
+        <v>767</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="I112" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="J112" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="K112" s="0" t="s">
-        <v>131</v>
+        <v>210</v>
       </c>
       <c r="L112" s="0" t="n">
-        <v>147.1122</v>
+        <v>133.0602</v>
       </c>
       <c r="M112" s="0" t="n">
         <v>1</v>
       </c>
       <c r="N112" s="0" t="n">
-        <v>147.1128</v>
+        <v>133.0608</v>
       </c>
       <c r="O112" s="0" t="s">
         <v>237</v>
       </c>
       <c r="P112" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q112" s="0" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="R112" s="0" t="n">
-        <v>53.8925</v>
+        <v>50.7965</v>
       </c>
       <c r="S112" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T112" s="0" t="n">
-        <v>98.898</v>
+        <v>94.3454</v>
       </c>
       <c r="U112" s="0" t="n">
         <v>1</v>
       </c>
       <c r="V112" s="0" t="n">
-        <v>1282.28</v>
+        <v>733.64</v>
       </c>
       <c r="W112" s="0" t="n">
-        <v>1284</v>
+        <v>732</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>1022</v>
+        <v>768</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="I113" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="J113" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="K113" s="0" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="L113" s="0" t="n">
-        <v>169.0943</v>
+        <v>147.0758</v>
       </c>
       <c r="M113" s="0" t="n">
         <v>1</v>
       </c>
       <c r="N113" s="0" t="n">
-        <v>169.0947</v>
+        <v>147.0764</v>
       </c>
       <c r="O113" s="0" t="s">
         <v>238</v>
       </c>
       <c r="P113" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q113" s="0" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="R113" s="0" t="n">
+        <v>47.4401</v>
+      </c>
+      <c r="S113" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T113" s="0" t="n">
+        <v>98.2785</v>
+      </c>
+      <c r="U113" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V113" s="0" t="n">
+        <v>735.86</v>
+      </c>
+      <c r="W113" s="0" t="n">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="B114" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="C114" s="0" t="n">
+        <v>793</v>
+      </c>
+      <c r="D114" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="E114" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="F114" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="G114" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="H114" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="I114" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="J114" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="K114" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="L114" s="0" t="n">
+        <v>173.0206</v>
+      </c>
+      <c r="M114" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" s="0" t="n">
+        <v>173.021</v>
+      </c>
+      <c r="O114" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="P114" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q114" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="R114" s="0" t="n">
+        <v>46.7956</v>
+      </c>
+      <c r="S114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T114" s="0" t="n">
+        <v>95.3687</v>
+      </c>
+      <c r="U114" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V114" s="0" t="n">
+        <v>754.37</v>
+      </c>
+      <c r="W114" s="0" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="B115" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C115" s="0" t="n">
+        <v>806</v>
+      </c>
+      <c r="D115" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="E115" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="F115" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="G115" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="H115" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="I115" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="J115" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="K115" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="L115" s="0" t="n">
+        <v>325.0424</v>
+      </c>
+      <c r="M115" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" s="0" t="n">
+        <v>325.0431</v>
+      </c>
+      <c r="O115" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="P115" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q115" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="R115" s="0" t="n">
+        <v>53.3957</v>
+      </c>
+      <c r="S115" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T115" s="0" t="n">
+        <v>92.7484</v>
+      </c>
+      <c r="U115" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V115" s="0" t="n">
+        <v>768.94</v>
+      </c>
+      <c r="W115" s="0" t="n">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="B116" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C116" s="0" t="n">
+        <v>905</v>
+      </c>
+      <c r="D116" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="E116" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="F116" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="G116" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="H116" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="I116" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="J116" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="K116" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="L116" s="0" t="n">
+        <v>203.052</v>
+      </c>
+      <c r="M116" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" s="0" t="n">
+        <v>203.0526</v>
+      </c>
+      <c r="O116" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="P116" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q116" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="R116" s="0" t="n">
+        <v>52.483</v>
+      </c>
+      <c r="S116" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T116" s="0" t="n">
+        <v>92.3456</v>
+      </c>
+      <c r="U116" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V116" s="0" t="n">
+        <v>865.23</v>
+      </c>
+      <c r="W116" s="0" t="n">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="B117" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="C117" s="0" t="n">
+        <v>949</v>
+      </c>
+      <c r="D117" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E117" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="F117" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="G117" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="H117" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="I117" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="J117" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="K117" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="L117" s="0" t="n">
+        <v>444.0304</v>
+      </c>
+      <c r="M117" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" s="0" t="n">
+        <v>444.0316</v>
+      </c>
+      <c r="O117" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="P117" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q117" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="R117" s="0" t="n">
+        <v>53.0289</v>
+      </c>
+      <c r="S117" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T117" s="0" t="n">
+        <v>89.9483</v>
+      </c>
+      <c r="U117" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V117" s="0" t="n">
+        <v>919.02</v>
+      </c>
+      <c r="W117" s="0" t="n">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="B118" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C118" s="0" t="n">
+        <v>1022</v>
+      </c>
+      <c r="D118" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="E118" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="F118" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="G118" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="H118" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="I118" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="J118" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="K118" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="L118" s="0" t="n">
+        <v>147.1122</v>
+      </c>
+      <c r="M118" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" s="0" t="n">
+        <v>147.1128</v>
+      </c>
+      <c r="O118" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="P118" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q118" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="R118" s="0" t="n">
         <v>53.8925</v>
       </c>
-      <c r="S113" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T113" s="0" t="n">
+      <c r="S118" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T118" s="0" t="n">
         <v>98.898</v>
       </c>
-      <c r="U113" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V113" s="0" t="n">
+      <c r="U118" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V118" s="0" t="n">
+        <v>1282.28</v>
+      </c>
+      <c r="W118" s="0" t="n">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="B119" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="C119" s="0" t="n">
+        <v>1022</v>
+      </c>
+      <c r="D119" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="E119" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="F119" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="G119" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="H119" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="I119" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="J119" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="K119" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="L119" s="0" t="n">
+        <v>169.0943</v>
+      </c>
+      <c r="M119" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" s="0" t="n">
+        <v>169.0947</v>
+      </c>
+      <c r="O119" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="P119" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q119" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="R119" s="0" t="n">
+        <v>53.8925</v>
+      </c>
+      <c r="S119" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T119" s="0" t="n">
+        <v>98.898</v>
+      </c>
+      <c r="U119" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V119" s="0" t="n">
         <v>1279.2</v>
       </c>
-      <c r="W113" s="0" t="n">
+      <c r="W119" s="0" t="n">
         <v>1284</v>
       </c>
     </row>
